--- a/Вектор развития ru-en 1.0 (53).xlsx
+++ b/Вектор развития ru-en 1.0 (53).xlsx
@@ -5431,8 +5431,8 @@
   </sheetPr>
   <dimension ref="A1:G690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="B375" sqref="B375"/>
+    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
+      <selection activeCell="A393" sqref="A393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12937,299 +12937,322 @@
       <c r="F374" s="13"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="B375" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="D375" s="2" t="s">
+      <c r="C375" s="7"/>
+      <c r="D375" s="7" t="s">
         <v>1640</v>
       </c>
-      <c r="E375" s="9" t="str">
+      <c r="E375" s="16" t="str">
         <f t="shared" ref="E375:E378" si="19">IF(ISBLANK(C375),"","&lt;!-- "&amp;C375&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A375&amp;"""&gt;"&amp;D375&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="stage"&gt;%d stage of development&lt;/string&gt;</v>
       </c>
-      <c r="F375" s="9" t="str">
+      <c r="F375" s="16" t="str">
         <f t="shared" ref="F375:F428" si="20">IF(ISBLANK(C375),"","&lt;!-- "&amp;C375&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A375&amp;"""&gt;"&amp;B375&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="stage"&gt;%d стадия развития&lt;/string&gt;</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
+      <c r="A376" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="B376" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="D376" s="1" t="s">
+      <c r="C376" s="7"/>
+      <c r="D376" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="E376" s="9" t="str">
+      <c r="E376" s="16" t="str">
         <f t="shared" si="19"/>
         <v>&lt;string name="doman_stage_advanced"&gt;Advance development&lt;/string&gt;</v>
       </c>
-      <c r="F376" s="9" t="str">
+      <c r="F376" s="16" t="str">
         <f t="shared" si="20"/>
         <v>&lt;string name="doman_stage_advanced"&gt;Опережающее развитие&lt;/string&gt;</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="B377" s="1" t="s">
+      <c r="B377" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="D377" s="2" t="s">
+      <c r="C377" s="7"/>
+      <c r="D377" s="7" t="s">
         <v>1641</v>
       </c>
-      <c r="E377" s="9" t="str">
+      <c r="E377" s="16" t="str">
         <f t="shared" si="19"/>
         <v>&lt;string name="doman_stage_normal"&gt;Normal development&lt;/string&gt;</v>
       </c>
-      <c r="F377" s="9" t="str">
+      <c r="F377" s="16" t="str">
         <f t="shared" si="20"/>
         <v>&lt;string name="doman_stage_normal"&gt;Нормальное развитие&lt;/string&gt;</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="B378" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="D378" s="2" t="s">
+      <c r="C378" s="7"/>
+      <c r="D378" s="7" t="s">
         <v>1642</v>
       </c>
-      <c r="E378" s="9" t="str">
+      <c r="E378" s="16" t="str">
         <f t="shared" si="19"/>
         <v>&lt;string name="doman_stage_slow"&gt;Retarded development&lt;/string&gt;</v>
       </c>
-      <c r="F378" s="9" t="str">
+      <c r="F378" s="16" t="str">
         <f t="shared" si="20"/>
         <v>&lt;string name="doman_stage_slow"&gt;Замедленное развитие&lt;/string&gt;</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="E379" s="9" t="str">
+      <c r="B379" s="7"/>
+      <c r="C379" s="7"/>
+      <c r="D379" s="7"/>
+      <c r="E379" s="16" t="str">
         <f>IF(ISBLANK(C379),"","&lt;!-- "&amp;C379&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A379&amp;"""&gt;"</f>
         <v>&lt;string-array name="test_doman_description_paragraphs"&gt;</v>
       </c>
-      <c r="F379" s="9" t="str">
+      <c r="F379" s="16" t="str">
         <f>IF(ISBLANK(C379),"","&lt;!-- "&amp;C379&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A379&amp;"""&gt;"</f>
         <v>&lt;string-array name="test_doman_description_paragraphs"&gt;</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B380" s="1" t="s">
+      <c r="A380" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B380" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="D380" s="2" t="s">
+      <c r="C380" s="7"/>
+      <c r="D380" s="7" t="s">
         <v>1644</v>
       </c>
-      <c r="E380" s="9" t="str">
-        <f t="shared" ref="E380:F381" si="21">IF(ISBLANK(C380),"","&lt;!-- "&amp;C380&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D380&amp;"&lt;/item&gt;"</f>
+      <c r="E380" s="16" t="str">
+        <f t="shared" ref="E380:E381" si="21">IF(ISBLANK(C380),"","&lt;!-- "&amp;C380&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D380&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Test to match chronological age of a child to corresponding stage of sensory-motor development with certain time frame using the Glenn Doman method.&lt;/item&gt;</v>
       </c>
-      <c r="F380" s="9" t="str">
+      <c r="F380" s="16" t="str">
         <f>IF(ISBLANK(C380),"","&lt;!-- "&amp;C380&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;B380&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Тест на соответствие календарного возраста ребенка соответствующей стадии моторного и сенсорного развития, с определенными временными рамками по методике Гленна Домана.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B381" s="3" t="s">
+      <c r="A381" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B381" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="D381" s="2" t="s">
+      <c r="C381" s="7"/>
+      <c r="D381" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="E381" s="9" t="str">
+      <c r="E381" s="16" t="str">
         <f t="shared" si="21"/>
         <v>&lt;item&gt;Test is divided into 2 sections: sensory development and motor development. Each section consists of 7 stages of brain development with a certain time frames and 3 parameters in each stages.&lt;/item&gt;</v>
       </c>
-      <c r="F381" s="9" t="str">
+      <c r="F381" s="16" t="str">
         <f>IF(ISBLANK(C381),"","&lt;!-- "&amp;C381&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;B381&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Тест состоит из двух разделов: моторное развитие и сенсорное развитие. Каждый из разделов состоит из 7 стадий развития мозга с определенными временными рамками и 3 параметров в каждой стадии.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
+      <c r="A382" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="B382" s="8"/>
-      <c r="D382" s="2"/>
-      <c r="E382" s="9" t="s">
+      <c r="B382" s="7"/>
+      <c r="C382" s="7"/>
+      <c r="D382" s="7"/>
+      <c r="E382" s="16" t="s">
         <v>1631</v>
       </c>
-      <c r="F382" s="9" t="s">
+      <c r="F382" s="16" t="s">
         <v>1631</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
+      <c r="A383" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="E383" s="9" t="str">
+      <c r="B383" s="7"/>
+      <c r="C383" s="7"/>
+      <c r="D383" s="7"/>
+      <c r="E383" s="16" t="str">
         <f>IF(ISBLANK(C383),"","&lt;!-- "&amp;C383&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A383&amp;"""&gt;"</f>
         <v>&lt;string-array name="stage_descriptions"&gt;</v>
       </c>
-      <c r="F383" s="9" t="str">
+      <c r="F383" s="16" t="str">
         <f>IF(ISBLANK(C383),"","&lt;!-- "&amp;C383&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A383&amp;"""&gt;"</f>
         <v>&lt;string-array name="stage_descriptions"&gt;</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B384" s="1" t="s">
+      <c r="A384" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B384" s="7" t="s">
         <v>932</v>
       </c>
-      <c r="D384" s="1" t="s">
+      <c r="C384" s="7"/>
+      <c r="D384" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="E384" s="9" t="str">
+      <c r="E384" s="16" t="str">
         <f t="shared" ref="E384:E390" si="22">IF(ISBLANK(C384),"","&lt;!-- "&amp;C384&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D384&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Early brain stem and spinal cord&lt;/item&gt;</v>
       </c>
-      <c r="F384" s="9" t="str">
+      <c r="F384" s="16" t="str">
         <f>IF(ISBLANK(C384),"","&lt;!-- "&amp;C384&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;B384&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Ранний ствол мозга и спинной мозг&lt;/item&gt;</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B385" s="1" t="s">
+      <c r="A385" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B385" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="D385" s="1" t="s">
+      <c r="C385" s="7"/>
+      <c r="D385" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="E385" s="9" t="str">
+      <c r="E385" s="16" t="str">
         <f t="shared" si="22"/>
         <v>&lt;item&gt;Brain stem and early subcortical area&lt;/item&gt;</v>
       </c>
-      <c r="F385" s="9" t="str">
+      <c r="F385" s="16" t="str">
         <f t="shared" ref="F385:F390" si="23">IF(ISBLANK(C385),"","&lt;!-- "&amp;C385&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;B385&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Ствол мозга и ранние подкорковые области&lt;/item&gt;</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B386" s="1" t="s">
+      <c r="A386" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B386" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="D386" s="1" t="s">
+      <c r="C386" s="7"/>
+      <c r="D386" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="E386" s="9" t="str">
+      <c r="E386" s="16" t="str">
         <f t="shared" si="22"/>
         <v>&lt;item&gt;Midbrain and subcortical area&lt;/item&gt;</v>
       </c>
-      <c r="F386" s="9" t="str">
+      <c r="F386" s="16" t="str">
         <f t="shared" si="23"/>
         <v>&lt;item&gt;Средний мозг и подкорковые области&lt;/item&gt;</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B387" s="1" t="s">
+      <c r="A387" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B387" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="D387" s="1" t="s">
+      <c r="C387" s="7"/>
+      <c r="D387" s="7" t="s">
         <v>939</v>
       </c>
-      <c r="E387" s="9" t="str">
+      <c r="E387" s="16" t="str">
         <f t="shared" si="22"/>
         <v>&lt;item&gt;Initial cortex&lt;/item&gt;</v>
       </c>
-      <c r="F387" s="9" t="str">
+      <c r="F387" s="16" t="str">
         <f t="shared" si="23"/>
         <v>&lt;item&gt;Начальная кора&lt;/item&gt;</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B388" s="1" t="s">
+      <c r="A388" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B388" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="D388" s="1" t="s">
+      <c r="C388" s="7"/>
+      <c r="D388" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="E388" s="9" t="str">
+      <c r="E388" s="16" t="str">
         <f t="shared" si="22"/>
         <v>&lt;item&gt;Early cortex&lt;/item&gt;</v>
       </c>
-      <c r="F388" s="9" t="str">
+      <c r="F388" s="16" t="str">
         <f t="shared" si="23"/>
         <v>&lt;item&gt;Ранняя кора&lt;/item&gt;</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B389" s="1" t="s">
+      <c r="A389" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B389" s="7" t="s">
         <v>942</v>
       </c>
-      <c r="D389" s="1" t="s">
+      <c r="C389" s="7"/>
+      <c r="D389" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="E389" s="9" t="str">
+      <c r="E389" s="16" t="str">
         <f t="shared" si="22"/>
         <v>&lt;item&gt;Primitive cortex&lt;/item&gt;</v>
       </c>
-      <c r="F389" s="9" t="str">
+      <c r="F389" s="16" t="str">
         <f t="shared" si="23"/>
         <v>&lt;item&gt;Примитивная кора&lt;/item&gt;</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B390" s="1" t="s">
+      <c r="A390" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B390" s="7" t="s">
         <v>944</v>
       </c>
-      <c r="D390" s="1" t="s">
+      <c r="C390" s="7"/>
+      <c r="D390" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="E390" s="9" t="str">
+      <c r="E390" s="16" t="str">
         <f t="shared" si="22"/>
         <v>&lt;item&gt;Complex cortex&lt;/item&gt;</v>
       </c>
-      <c r="F390" s="9" t="str">
+      <c r="F390" s="16" t="str">
         <f t="shared" si="23"/>
         <v>&lt;item&gt;Сложная кора&lt;/item&gt;</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
+      <c r="A391" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="E391" s="9" t="s">
+      <c r="B391" s="7"/>
+      <c r="C391" s="7"/>
+      <c r="D391" s="7"/>
+      <c r="E391" s="16" t="s">
         <v>1631</v>
       </c>
-      <c r="F391" s="9" t="s">
+      <c r="F391" s="16" t="s">
         <v>1631</v>
       </c>
     </row>

--- a/Вектор развития ru-en 1.0 (53).xlsx
+++ b/Вектор развития ru-en 1.0 (53).xlsx
@@ -2982,9 +2982,6 @@
     <t>Ребенок благодаря тактильности понимает, что предмет объемный (например: кубик на столе кажется плоским, но если его подержать в руках, понимаешь, что он объемный)?</t>
   </si>
   <si>
-    <t>Does your child recognize familiar objects when they tough them? This can be tested using a block and a ball of the same size and material. First let the child touch one object, name it and show it to them, then the other, then give the objects to the child one after another, then in the end show both the ball and the block and ask what the child had just touched. If the child choses correctly, the score is perfect.</t>
-  </si>
-  <si>
     <t>Ребенок может тактильно дать характеристику предметам (шершавый, гладкий, мягкий)?</t>
   </si>
   <si>
@@ -3406,9 +3403,6 @@
     <t>M-CHAT-R выявляет настолько большое количество случаев расстройств аутического спектра (РАС), насколько это возможно. Существует высокая доля ложноположительных результатов.</t>
   </si>
   <si>
-    <t>M-CHAT-R has as high detection rate of autism spectrum disorders (ASD) as possible. However, there is also a high hisk of false positive.</t>
-  </si>
-  <si>
     <t>Алгоритм подсчета: ответ «Нет» по всем пунктам, за исключением 2, 5 и 12, указывает на риск РАС. Ответ «Да» для пунктов 2, 5 и 12 указывает на риск РАС.</t>
   </si>
   <si>
@@ -3736,9 +3730,6 @@
     <t>Ортопед-травматолог</t>
   </si>
   <si>
-    <t>Orthopedist/traumatologist</t>
-  </si>
-  <si>
     <t>Ортопед</t>
   </si>
   <si>
@@ -3901,9 +3892,6 @@
     <t>Педиатр-неонатолог</t>
   </si>
   <si>
-    <t>Pediatritian/neonatologist</t>
-  </si>
-  <si>
     <t>Pediatritian</t>
   </si>
   <si>
@@ -4894,9 +4882,6 @@
     <t>5. При изменении значений столбца B помечать их цветом.</t>
   </si>
   <si>
-    <t>gramms</t>
-  </si>
-  <si>
     <t>milliliters</t>
   </si>
   <si>
@@ -4976,6 +4961,21 @@
   </si>
   <si>
     <t>Development\nVector</t>
+  </si>
+  <si>
+    <t>grams</t>
+  </si>
+  <si>
+    <t>M-CHAT-R has as high detection rate of autism spectrum disorders (ASD) as possible. However, there is also a high risk of false positive.</t>
+  </si>
+  <si>
+    <t>Does your child recognize familiar objects when they tough them? This can be tested using a block and a ball of the same size and material. First let the child touch one object, name it and show it to them, then the other, then give the objects to the child one after another, then in the end show both the ball and the block and ask what the child had just touched. If the child chooses correctly, the score is perfect.</t>
+  </si>
+  <si>
+    <t>Orthopedist/Traumatologist</t>
+  </si>
+  <si>
+    <t>Pediatritian/Neonatologist</t>
   </si>
 </sst>
 </file>
@@ -5393,8 +5393,8 @@
   </sheetPr>
   <dimension ref="A1:G690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E3:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5439,7 +5439,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="2" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>IF(ISBLANK(C3),"","&lt;!-- "&amp;C3&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A3&amp;"""&gt;"&amp;D3&amp;"&lt;/string&gt;"</f>
@@ -5476,7 +5476,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>IF(ISBLANK(C4),"","&lt;!-- "&amp;C4&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A4&amp;"""&gt;"&amp;D4&amp;"&lt;/string&gt;"</f>
@@ -5487,7 +5487,7 @@
         <v>&lt;!-- \n - символ переноса строки --&gt;NEWLINE&lt;string name="app_name_splash"&gt;Вектор\nразвития&lt;/string&gt;</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" ref="E5:E70" si="1">IF(ISBLANK(C5),"","&lt;!-- "&amp;C5&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A5&amp;"""&gt;"&amp;D5&amp;"&lt;/string&gt;"</f>
@@ -5510,7 +5510,7 @@
         <v>&lt;string name="drawer_item_calendar"&gt;Календарь&lt;/string&gt;</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5533,7 +5533,7 @@
         <v>&lt;string name="drawer_item_development_diary"&gt;Дневник развития&lt;/string&gt;</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5707,7 +5707,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5820,14 +5820,14 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5840,14 +5840,14 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5969,7 +5969,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="E33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="E35" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="E36" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="E37" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="E39" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="E41" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="E56" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="E57" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="E68" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="E72" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="E74" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="E75" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="E76" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="E77" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="E78" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="E79" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="E80" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="E81" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="E82" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="E83" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="E84" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="E85" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="E86" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="E87" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="E88" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="E89" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="E90" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="E91" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="E92" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="E93" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="E94" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="E95" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="E96" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="E98" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="E99" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E101" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="E102" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="E103" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7491,7 +7491,7 @@
         <v>242</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="E104" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="E105" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="E106" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7553,7 +7553,7 @@
         <v>249</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="E107" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7595,7 +7595,7 @@
         <v>255</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="E109" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7637,7 +7637,7 @@
         <v>261</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="E111" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7659,7 +7659,7 @@
         <v>264</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="E112" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7681,7 +7681,7 @@
         <v>267</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="E113" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7703,7 +7703,7 @@
         <v>270</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="E114" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="E115" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="E116" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="E117" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="E125" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="E126" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8043,7 +8043,7 @@
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="E131" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="E135" s="4" t="str">
         <f t="shared" ref="E135:E198" si="5">IF(ISBLANK(C135),"","&lt;!-- "&amp;C135&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A135&amp;"""&gt;"&amp;D135&amp;"&lt;/string&gt;"</f>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="E139" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="E151" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8625,7 +8625,7 @@
         <v>399</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="E160" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8647,7 +8647,7 @@
         <v>399</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="E161" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8703,11 +8703,11 @@
         <v>408</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="E164" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8723,11 +8723,11 @@
         <v>409</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="E165" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8743,11 +8743,11 @@
         <v>410</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="E166" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8763,11 +8763,11 @@
         <v>411</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="E167" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="E174" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9089,7 +9089,7 @@
         <v>458</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="E183" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9111,7 +9111,7 @@
         <v>461</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="E184" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9133,7 +9133,7 @@
         <v>464</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="E185" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="E194" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="E195" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="E196" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9373,7 +9373,7 @@
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="E197" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="E201" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="E204" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="E206" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="E207" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="E209" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="E210" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="E211" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9669,11 +9669,11 @@
         <v>533</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="E212" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="E213" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="E215" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10138,7 +10138,7 @@
         <v>601</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>602</v>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="E245" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="E246" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="E251" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10501,7 +10501,7 @@
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="E253" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="E254" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10643,7 +10643,7 @@
         <v>672</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="E260" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10863,7 +10863,7 @@
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="E271" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10883,7 +10883,7 @@
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E272" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10943,7 +10943,7 @@
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E275" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10963,7 +10963,7 @@
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="E276" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11103,7 +11103,7 @@
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="E283" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="E309" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11665,7 +11665,7 @@
         <v>815</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="E311" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11827,7 +11827,7 @@
         <v>11</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="E319" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11847,7 +11847,7 @@
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="E320" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11869,7 +11869,7 @@
         <v>843</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="E321" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11891,7 +11891,7 @@
         <v>846</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="E322" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12176,10 +12176,10 @@
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12446,10 +12446,10 @@
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F351" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12491,7 +12491,7 @@
         <v>892</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="E354" s="4" t="str">
         <f>IF(ISBLANK(C354),"","&lt;!-- "&amp;C354&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A354&amp;"""&gt;"&amp;D354&amp;"&lt;/item&gt;"</f>
@@ -12513,7 +12513,7 @@
         <v>895</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="E355" s="4" t="str">
         <f t="shared" ref="E355:E358" si="13">IF(ISBLANK(C355),"","&lt;!-- "&amp;C355&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A355&amp;"""&gt;"&amp;D355&amp;"&lt;/item&gt;"</f>
@@ -12535,7 +12535,7 @@
         <v>896</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="E356" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12557,7 +12557,7 @@
         <v>898</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="E357" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12579,7 +12579,7 @@
         <v>900</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="E358" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12598,10 +12598,10 @@
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="F359" s="4" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -12633,7 +12633,7 @@
         <v>903</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="E361" s="4" t="str">
         <f t="shared" ref="E361:E365" si="15">IF(ISBLANK(C361),"","&lt;!-- "&amp;C361&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A361&amp;"""&gt;"&amp;D361&amp;"&lt;/item&gt;"</f>
@@ -12655,7 +12655,7 @@
         <v>905</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="E362" s="4" t="str">
         <f t="shared" si="15"/>
@@ -12677,7 +12677,7 @@
         <v>896</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="E363" s="4" t="str">
         <f t="shared" si="15"/>
@@ -12699,7 +12699,7 @@
         <v>907</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="E364" s="4" t="str">
         <f t="shared" si="15"/>
@@ -12721,7 +12721,7 @@
         <v>908</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="E365" s="4" t="str">
         <f t="shared" si="15"/>
@@ -12740,10 +12740,10 @@
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="F366" s="4" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -12775,7 +12775,7 @@
         <v>911</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="E368" s="4" t="str">
         <f t="shared" ref="E368:E372" si="17">IF(ISBLANK(C368),"","&lt;!-- "&amp;C368&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A368&amp;"""&gt;"&amp;D368&amp;"&lt;/item&gt;"</f>
@@ -12797,7 +12797,7 @@
         <v>913</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="E369" s="4" t="str">
         <f t="shared" si="17"/>
@@ -12819,7 +12819,7 @@
         <v>896</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="E370" s="4" t="str">
         <f t="shared" si="17"/>
@@ -12841,7 +12841,7 @@
         <v>915</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="E371" s="4" t="str">
         <f t="shared" si="17"/>
@@ -12863,7 +12863,7 @@
         <v>916</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="E372" s="4" t="str">
         <f t="shared" si="17"/>
@@ -12882,10 +12882,10 @@
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="F373" s="4" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12907,7 +12907,7 @@
       </c>
       <c r="C375" s="4"/>
       <c r="D375" s="4" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="E375" s="11" t="str">
         <f t="shared" ref="E375:E378" si="19">IF(ISBLANK(C375),"","&lt;!-- "&amp;C375&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A375&amp;"""&gt;"&amp;D375&amp;"&lt;/string&gt;"</f>
@@ -12947,7 +12947,7 @@
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="4" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="E377" s="11" t="str">
         <f t="shared" si="19"/>
@@ -12967,7 +12967,7 @@
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="4" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="E378" s="11" t="str">
         <f t="shared" si="19"/>
@@ -13003,7 +13003,7 @@
       </c>
       <c r="C380" s="4"/>
       <c r="D380" s="4" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="E380" s="11" t="str">
         <f t="shared" ref="E380:E381" si="21">IF(ISBLANK(C380),"","&lt;!-- "&amp;C380&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D380&amp;"&lt;/item&gt;"</f>
@@ -13042,10 +13042,10 @@
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F382" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13212,10 +13212,10 @@
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F391" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -13237,7 +13237,7 @@
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="4" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="E393" s="4" t="str">
         <f t="shared" ref="E393:E396" si="24">IF(ISBLANK(C393),"","&lt;!-- "&amp;C393&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A393&amp;"""&gt;"&amp;D393&amp;"&lt;/string&gt;"</f>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="4" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="E398" s="4" t="str">
         <f t="shared" ref="E398:E404" si="25">IF(ISBLANK(C398),"","&lt;!-- "&amp;C398&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D398&amp;"&lt;/item&gt;"</f>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="C399" s="4"/>
       <c r="D399" s="4" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="E399" s="4" t="str">
         <f t="shared" si="25"/>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="C400" s="4"/>
       <c r="D400" s="4" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="E400" s="4" t="str">
         <f t="shared" si="25"/>
@@ -13393,7 +13393,7 @@
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="4" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="E401" s="4" t="str">
         <f t="shared" si="25"/>
@@ -13472,10 +13472,10 @@
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F405" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="C408" s="4"/>
       <c r="D408" s="4" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="E408" s="4" t="str">
         <f t="shared" si="27"/>
@@ -13539,11 +13539,11 @@
         <v>849</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="C409" s="4"/>
       <c r="D409" s="4" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="E409" s="4" t="str">
         <f t="shared" si="27"/>
@@ -13579,7 +13579,7 @@
         <v>849</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="C411" s="4"/>
       <c r="D411" s="4" t="s">
@@ -13642,10 +13642,10 @@
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F414" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="C418" s="4"/>
       <c r="D418" s="4" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="E418" s="4" t="str">
         <f t="shared" si="29"/>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="C419" s="4"/>
       <c r="D419" s="4" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="E419" s="4" t="str">
         <f t="shared" si="29"/>
@@ -13749,15 +13749,15 @@
         <v>849</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="C420" s="4"/>
       <c r="D420" s="4" t="s">
-        <v>987</v>
+        <v>1649</v>
       </c>
       <c r="E420" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>&lt;item&gt;Does your child recognize familiar objects when they tough them? This can be tested using a block and a ball of the same size and material. First let the child touch one object, name it and show it to them, then the other, then give the objects to the child one after another, then in the end show both the ball and the block and ask what the child had just touched. If the child choses correctly, the score is perfect.&lt;/item&gt;</v>
+        <v>&lt;item&gt;Does your child recognize familiar objects when they tough them? This can be tested using a block and a ball of the same size and material. First let the child touch one object, name it and show it to them, then the other, then give the objects to the child one after another, then in the end show both the ball and the block and ask what the child had just touched. If the child chooses correctly, the score is perfect.&lt;/item&gt;</v>
       </c>
       <c r="F420" s="4" t="str">
         <f t="shared" si="30"/>
@@ -13769,11 +13769,11 @@
         <v>849</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C421" s="4"/>
       <c r="D421" s="4" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="E421" s="4" t="str">
         <f t="shared" si="29"/>
@@ -13789,11 +13789,11 @@
         <v>849</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E422" s="4" t="str">
         <f t="shared" si="29"/>
@@ -13812,15 +13812,15 @@
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F423" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -13830,14 +13830,14 @@
     </row>
     <row r="425" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B425" s="4" t="s">
         <v>991</v>
-      </c>
-      <c r="B425" s="4" t="s">
-        <v>992</v>
       </c>
       <c r="C425" s="4"/>
       <c r="D425" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E425" s="4" t="str">
         <f t="shared" ref="E425:E428" si="31">IF(ISBLANK(C425),"","&lt;!-- "&amp;C425&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A425&amp;"""&gt;"&amp;D425&amp;"&lt;/string&gt;"</f>
@@ -13850,14 +13850,14 @@
     </row>
     <row r="426" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="B426" s="4" t="s">
         <v>994</v>
-      </c>
-      <c r="B426" s="4" t="s">
-        <v>995</v>
       </c>
       <c r="C426" s="4"/>
       <c r="D426" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E426" s="4" t="str">
         <f t="shared" si="31"/>
@@ -13870,14 +13870,14 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B427" s="4" t="s">
         <v>997</v>
-      </c>
-      <c r="B427" s="4" t="s">
-        <v>998</v>
       </c>
       <c r="C427" s="4"/>
       <c r="D427" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E427" s="4" t="str">
         <f t="shared" si="31"/>
@@ -13890,14 +13890,14 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B428" s="4" t="s">
         <v>1000</v>
-      </c>
-      <c r="B428" s="4" t="s">
-        <v>1001</v>
       </c>
       <c r="C428" s="4"/>
       <c r="D428" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E428" s="4" t="str">
         <f t="shared" si="31"/>
@@ -13910,7 +13910,7 @@
     </row>
     <row r="429" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -13929,11 +13929,11 @@
         <v>849</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C430" s="4"/>
       <c r="D430" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E430" s="4" t="str">
         <f t="shared" ref="E430:E436" si="32">IF(ISBLANK(C430),"","&lt;!-- "&amp;C430&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D430&amp;"&lt;/item&gt;"</f>
@@ -13949,11 +13949,11 @@
         <v>849</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C431" s="4"/>
       <c r="D431" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E431" s="4" t="str">
         <f t="shared" si="32"/>
@@ -13969,11 +13969,11 @@
         <v>849</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C432" s="4"/>
       <c r="D432" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E432" s="4" t="str">
         <f t="shared" si="32"/>
@@ -13989,11 +13989,11 @@
         <v>849</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C433" s="4"/>
       <c r="D433" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E433" s="4" t="str">
         <f t="shared" si="32"/>
@@ -14009,11 +14009,11 @@
         <v>849</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C434" s="4"/>
       <c r="D434" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E434" s="4" t="str">
         <f t="shared" si="32"/>
@@ -14029,11 +14029,11 @@
         <v>849</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C435" s="4"/>
       <c r="D435" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E435" s="4" t="str">
         <f t="shared" si="32"/>
@@ -14049,11 +14049,11 @@
         <v>849</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C436" s="4"/>
       <c r="D436" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E436" s="4" t="str">
         <f t="shared" si="32"/>
@@ -14066,21 +14066,21 @@
     </row>
     <row r="437" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F437" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -14099,11 +14099,11 @@
         <v>849</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C439" s="4"/>
       <c r="D439" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E439" s="4" t="str">
         <f t="shared" ref="E439:E445" si="34">IF(ISBLANK(C439),"","&lt;!-- "&amp;C439&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D439&amp;"&lt;/item&gt;"</f>
@@ -14119,11 +14119,11 @@
         <v>849</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E440" s="4" t="str">
         <f t="shared" si="34"/>
@@ -14139,11 +14139,11 @@
         <v>849</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C441" s="4"/>
       <c r="D441" s="4" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="E441" s="4" t="str">
         <f t="shared" si="34"/>
@@ -14159,11 +14159,11 @@
         <v>849</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E442" s="4" t="str">
         <f t="shared" si="34"/>
@@ -14179,11 +14179,11 @@
         <v>849</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C443" s="4"/>
       <c r="D443" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E443" s="4" t="str">
         <f t="shared" si="34"/>
@@ -14199,11 +14199,11 @@
         <v>849</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C444" s="4"/>
       <c r="D444" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E444" s="4" t="str">
         <f t="shared" si="34"/>
@@ -14219,11 +14219,11 @@
         <v>849</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C445" s="4"/>
       <c r="D445" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E445" s="4" t="str">
         <f t="shared" si="34"/>
@@ -14236,21 +14236,21 @@
     </row>
     <row r="446" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F446" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -14269,11 +14269,11 @@
         <v>849</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E448" s="4" t="str">
         <f t="shared" ref="E448:E454" si="36">IF(ISBLANK(C448),"","&lt;!-- "&amp;C448&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D448&amp;"&lt;/item&gt;"</f>
@@ -14289,11 +14289,11 @@
         <v>849</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E449" s="4" t="str">
         <f t="shared" si="36"/>
@@ -14309,11 +14309,11 @@
         <v>849</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E450" s="4" t="str">
         <f t="shared" si="36"/>
@@ -14329,11 +14329,11 @@
         <v>849</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C451" s="4"/>
       <c r="D451" s="4" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="E451" s="4" t="str">
         <f t="shared" si="36"/>
@@ -14350,11 +14350,11 @@
         <v>849</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C452" s="4"/>
       <c r="D452" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E452" s="4" t="str">
         <f t="shared" si="36"/>
@@ -14370,11 +14370,11 @@
         <v>849</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C453" s="4"/>
       <c r="D453" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E453" s="4" t="str">
         <f t="shared" si="36"/>
@@ -14390,11 +14390,11 @@
         <v>849</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C454" s="4"/>
       <c r="D454" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E454" s="4" t="str">
         <f t="shared" si="36"/>
@@ -14407,21 +14407,21 @@
     </row>
     <row r="455" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F455" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
@@ -14431,14 +14431,14 @@
     </row>
     <row r="457" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B457" s="4" t="s">
         <v>1046</v>
-      </c>
-      <c r="B457" s="4" t="s">
-        <v>1047</v>
       </c>
       <c r="C457" s="4"/>
       <c r="D457" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E457" s="4" t="str">
         <f t="shared" ref="E457:E461" si="38">IF(ISBLANK(C457),"","&lt;!-- "&amp;C457&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A457&amp;"""&gt;"&amp;D457&amp;"&lt;/string&gt;"</f>
@@ -14451,14 +14451,14 @@
     </row>
     <row r="458" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="C458" s="4"/>
       <c r="D458" s="4" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="E458" s="4" t="str">
         <f t="shared" si="38"/>
@@ -14471,14 +14471,14 @@
     </row>
     <row r="459" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B459" s="4" t="s">
         <v>1050</v>
-      </c>
-      <c r="B459" s="4" t="s">
-        <v>1051</v>
       </c>
       <c r="C459" s="4"/>
       <c r="D459" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E459" s="4" t="str">
         <f t="shared" si="38"/>
@@ -14491,14 +14491,14 @@
     </row>
     <row r="460" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B460" s="4" t="s">
         <v>1053</v>
-      </c>
-      <c r="B460" s="4" t="s">
-        <v>1054</v>
       </c>
       <c r="C460" s="4"/>
       <c r="D460" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E460" s="4" t="str">
         <f t="shared" si="38"/>
@@ -14511,14 +14511,14 @@
     </row>
     <row r="461" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B461" s="4" t="s">
         <v>1056</v>
-      </c>
-      <c r="B461" s="4" t="s">
-        <v>1057</v>
       </c>
       <c r="C461" s="4"/>
       <c r="D461" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E461" s="4" t="str">
         <f t="shared" si="38"/>
@@ -14531,7 +14531,7 @@
     </row>
     <row r="462" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -14550,11 +14550,11 @@
         <v>849</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C463" s="4"/>
       <c r="D463" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E463" s="4" t="str">
         <f t="shared" ref="E463:E464" si="40">IF(ISBLANK(C463),"","&lt;!-- "&amp;C463&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D463&amp;"&lt;/item&gt;"</f>
@@ -14570,11 +14570,11 @@
         <v>849</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C464" s="4"/>
       <c r="D464" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E464" s="4" t="str">
         <f t="shared" si="40"/>
@@ -14587,21 +14587,21 @@
     </row>
     <row r="465" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F465" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -14620,11 +14620,11 @@
         <v>849</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C467" s="4"/>
       <c r="D467" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E467" s="4" t="str">
         <f t="shared" ref="E467:E491" si="42">IF(ISBLANK(C467),"","&lt;!-- "&amp;C467&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D467&amp;"&lt;/item&gt;"</f>
@@ -14640,11 +14640,11 @@
         <v>849</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C468" s="4"/>
       <c r="D468" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E468" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14660,11 +14660,11 @@
         <v>849</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C469" s="4"/>
       <c r="D469" s="4" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="E469" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14680,11 +14680,11 @@
         <v>849</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C470" s="4"/>
       <c r="D470" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E470" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14700,11 +14700,11 @@
         <v>849</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C471" s="4"/>
       <c r="D471" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E471" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14720,11 +14720,11 @@
         <v>849</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C472" s="4"/>
       <c r="D472" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E472" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14740,11 +14740,11 @@
         <v>849</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C473" s="4"/>
       <c r="D473" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E473" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14760,11 +14760,11 @@
         <v>849</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C474" s="4"/>
       <c r="D474" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E474" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14780,11 +14780,11 @@
         <v>849</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C475" s="4"/>
       <c r="D475" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E475" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14800,11 +14800,11 @@
         <v>849</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C476" s="4"/>
       <c r="D476" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E476" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14820,11 +14820,11 @@
         <v>849</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C477" s="4"/>
       <c r="D477" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E477" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14840,11 +14840,11 @@
         <v>849</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C478" s="4"/>
       <c r="D478" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E478" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14860,11 +14860,11 @@
         <v>849</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C479" s="4"/>
       <c r="D479" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E479" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14880,11 +14880,11 @@
         <v>849</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C480" s="4"/>
       <c r="D480" s="4" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="E480" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14900,11 +14900,11 @@
         <v>849</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C481" s="4"/>
       <c r="D481" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E481" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14920,11 +14920,11 @@
         <v>849</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C482" s="4"/>
       <c r="D482" s="4" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="E482" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14940,11 +14940,11 @@
         <v>849</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C483" s="4"/>
       <c r="D483" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E483" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14960,11 +14960,11 @@
         <v>849</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C484" s="4"/>
       <c r="D484" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E484" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14980,11 +14980,11 @@
         <v>849</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C485" s="4"/>
       <c r="D485" s="4" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="E485" s="4" t="str">
         <f t="shared" si="42"/>
@@ -15000,11 +15000,11 @@
         <v>849</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C486" s="4"/>
       <c r="D486" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E486" s="4" t="str">
         <f t="shared" si="42"/>
@@ -15020,11 +15020,11 @@
         <v>849</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C487" s="4"/>
       <c r="D487" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E487" s="4" t="str">
         <f t="shared" si="42"/>
@@ -15040,11 +15040,11 @@
         <v>849</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="C488" s="4"/>
       <c r="D488" s="4" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="E488" s="4" t="str">
         <f t="shared" si="42"/>
@@ -15060,11 +15060,11 @@
         <v>849</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C489" s="4"/>
       <c r="D489" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E489" s="4" t="str">
         <f t="shared" si="42"/>
@@ -15080,11 +15080,11 @@
         <v>849</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C490" s="4"/>
       <c r="D490" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E490" s="4" t="str">
         <f t="shared" si="42"/>
@@ -15100,11 +15100,11 @@
         <v>849</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C491" s="4"/>
       <c r="D491" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E491" s="4" t="str">
         <f t="shared" si="42"/>
@@ -15117,21 +15117,21 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F492" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
@@ -15141,14 +15141,14 @@
     </row>
     <row r="494" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A494" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B494" s="4" t="s">
         <v>1108</v>
-      </c>
-      <c r="B494" s="4" t="s">
-        <v>1109</v>
       </c>
       <c r="C494" s="4"/>
       <c r="D494" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E494" s="4" t="str">
         <f t="shared" ref="E494:E501" si="44">IF(ISBLANK(C494),"","&lt;!-- "&amp;C494&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A494&amp;"""&gt;"&amp;D494&amp;"&lt;/string&gt;"</f>
@@ -15161,14 +15161,14 @@
     </row>
     <row r="495" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A495" s="4" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="C495" s="4"/>
       <c r="D495" s="4" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="E495" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15181,14 +15181,14 @@
     </row>
     <row r="496" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="C496" s="4"/>
       <c r="D496" s="4" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="E496" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15201,14 +15201,14 @@
     </row>
     <row r="497" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A497" s="4" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="C497" s="4"/>
       <c r="D497" s="4" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="E497" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15221,16 +15221,16 @@
     </row>
     <row r="498" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A498" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B498" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="B498" s="4" t="s">
+      <c r="C498" s="4" t="s">
         <v>1115</v>
       </c>
-      <c r="C498" s="4" t="s">
-        <v>1116</v>
-      </c>
       <c r="D498" s="4" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="E498" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15243,14 +15243,14 @@
     </row>
     <row r="499" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B499" s="4" t="s">
         <v>1117</v>
-      </c>
-      <c r="B499" s="4" t="s">
-        <v>1118</v>
       </c>
       <c r="C499" s="4"/>
       <c r="D499" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E499" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15263,14 +15263,14 @@
     </row>
     <row r="500" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B500" s="4" t="s">
         <v>1120</v>
-      </c>
-      <c r="B500" s="4" t="s">
-        <v>1121</v>
       </c>
       <c r="C500" s="4"/>
       <c r="D500" s="4" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E500" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15283,14 +15283,14 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B501" s="4" t="s">
         <v>1123</v>
-      </c>
-      <c r="B501" s="4" t="s">
-        <v>1124</v>
       </c>
       <c r="C501" s="4"/>
       <c r="D501" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E501" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15303,7 +15303,7 @@
     </row>
     <row r="502" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A502" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -15322,15 +15322,15 @@
         <v>849</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C503" s="4"/>
       <c r="D503" s="4" t="s">
-        <v>1128</v>
+        <v>1648</v>
       </c>
       <c r="E503" s="4" t="str">
         <f t="shared" ref="E503:E505" si="45">IF(ISBLANK(C503),"","&lt;!-- "&amp;C503&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D503&amp;"&lt;/item&gt;"</f>
-        <v>&lt;item&gt;M-CHAT-R has as high detection rate of autism spectrum disorders (ASD) as possible. However, there is also a high hisk of false positive.&lt;/item&gt;</v>
+        <v>&lt;item&gt;M-CHAT-R has as high detection rate of autism spectrum disorders (ASD) as possible. However, there is also a high risk of false positive.&lt;/item&gt;</v>
       </c>
       <c r="F503" s="4" t="str">
         <f t="shared" ref="F503:F505" si="46">IF(ISBLANK(C503),"","&lt;!-- "&amp;C503&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;B503&amp;"&lt;/item&gt;"</f>
@@ -15342,11 +15342,11 @@
         <v>849</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C504" s="4"/>
       <c r="D504" s="4" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="E504" s="4" t="str">
         <f t="shared" si="45"/>
@@ -15362,11 +15362,11 @@
         <v>849</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="C505" s="4"/>
       <c r="D505" s="4" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="E505" s="4" t="str">
         <f t="shared" si="45"/>
@@ -15379,21 +15379,21 @@
     </row>
     <row r="506" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F506" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="4" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -15412,11 +15412,11 @@
         <v>849</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C508" s="4"/>
       <c r="D508" s="4" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E508" s="4" t="str">
         <f t="shared" ref="E508:E527" si="47">IF(ISBLANK(C508),"","&lt;!-- "&amp;C508&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D508&amp;"&lt;/item&gt;"</f>
@@ -15432,11 +15432,11 @@
         <v>849</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C509" s="4"/>
       <c r="D509" s="4" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E509" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15452,11 +15452,11 @@
         <v>849</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C510" s="4"/>
       <c r="D510" s="4" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E510" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15472,11 +15472,11 @@
         <v>849</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C511" s="4"/>
       <c r="D511" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E511" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15492,11 +15492,11 @@
         <v>849</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C512" s="4"/>
       <c r="D512" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E512" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15512,11 +15512,11 @@
         <v>849</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C513" s="4"/>
       <c r="D513" s="4" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="E513" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15532,11 +15532,11 @@
         <v>849</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C514" s="4"/>
       <c r="D514" s="4" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E514" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15552,11 +15552,11 @@
         <v>849</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C515" s="4"/>
       <c r="D515" s="4" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E515" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15572,11 +15572,11 @@
         <v>849</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="C516" s="4"/>
       <c r="D516" s="4" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E516" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15592,11 +15592,11 @@
         <v>849</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C517" s="4"/>
       <c r="D517" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E517" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15612,11 +15612,11 @@
         <v>849</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C518" s="4"/>
       <c r="D518" s="4" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E518" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15632,11 +15632,11 @@
         <v>849</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C519" s="4"/>
       <c r="D519" s="4" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E519" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15652,11 +15652,11 @@
         <v>849</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C520" s="4"/>
       <c r="D520" s="4" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E520" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15672,11 +15672,11 @@
         <v>849</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C521" s="4"/>
       <c r="D521" s="4" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E521" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15692,11 +15692,11 @@
         <v>849</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C522" s="4"/>
       <c r="D522" s="4" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="E522" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15712,11 +15712,11 @@
         <v>849</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C523" s="4"/>
       <c r="D523" s="4" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E523" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15732,11 +15732,11 @@
         <v>849</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C524" s="4"/>
       <c r="D524" s="4" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E524" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15752,11 +15752,11 @@
         <v>849</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C525" s="4"/>
       <c r="D525" s="4" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="E525" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15772,11 +15772,11 @@
         <v>849</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C526" s="4"/>
       <c r="D526" s="4" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E526" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15792,11 +15792,11 @@
         <v>849</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="C527" s="4"/>
       <c r="D527" s="4" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E527" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15809,21 +15809,21 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="4" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F528" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A529" s="7" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B529" s="7"/>
       <c r="C529" s="7"/>
@@ -15852,11 +15852,11 @@
         <v>849</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C531" s="4"/>
       <c r="D531" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E531" s="11" t="str">
         <f t="shared" ref="E531:E534" si="49">IF(ISBLANK(C531),"","&lt;!-- "&amp;C531&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D531&amp;"&lt;/item&gt;"</f>
@@ -15872,11 +15872,11 @@
         <v>849</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C532" s="4"/>
       <c r="D532" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E532" s="11" t="str">
         <f t="shared" si="49"/>
@@ -15892,11 +15892,11 @@
         <v>849</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C533" s="4"/>
       <c r="D533" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E533" s="11" t="str">
         <f t="shared" si="49"/>
@@ -15912,11 +15912,11 @@
         <v>849</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C534" s="4"/>
       <c r="D534" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E534" s="11" t="str">
         <f t="shared" si="49"/>
@@ -15935,10 +15935,10 @@
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="E535" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F535" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
@@ -15962,15 +15962,15 @@
         <v>849</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C537" s="4"/>
       <c r="D537" s="4" t="s">
-        <v>1624</v>
+        <v>1647</v>
       </c>
       <c r="E537" s="11" t="str">
         <f t="shared" ref="E537:E538" si="51">IF(ISBLANK(C537),"","&lt;!-- "&amp;C537&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D537&amp;"&lt;/item&gt;"</f>
-        <v>&lt;item&gt;gramms&lt;/item&gt;</v>
+        <v>&lt;item&gt;grams&lt;/item&gt;</v>
       </c>
       <c r="F537" s="11" t="str">
         <f t="shared" si="50"/>
@@ -15982,11 +15982,11 @@
         <v>849</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C538" s="4"/>
       <c r="D538" s="4" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="E538" s="11" t="str">
         <f t="shared" si="51"/>
@@ -16005,10 +16005,10 @@
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F539" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
@@ -16032,11 +16032,11 @@
         <v>849</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C541" s="4"/>
       <c r="D541" s="4" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E541" s="11" t="str">
         <f t="shared" ref="E541:E607" si="52">IF(ISBLANK(C541),"","&lt;!-- "&amp;C541&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D541&amp;"&lt;/item&gt;"</f>
@@ -16052,11 +16052,11 @@
         <v>849</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C542" s="4"/>
       <c r="D542" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E542" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16072,11 +16072,11 @@
         <v>849</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C543" s="4"/>
       <c r="D543" s="4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E543" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16092,11 +16092,11 @@
         <v>849</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C544" s="4"/>
       <c r="D544" s="4" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E544" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16112,11 +16112,11 @@
         <v>849</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C545" s="4"/>
       <c r="D545" s="4" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E545" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16132,11 +16132,11 @@
         <v>849</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C546" s="4"/>
       <c r="D546" s="4" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E546" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16152,11 +16152,11 @@
         <v>849</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C547" s="4"/>
       <c r="D547" s="4" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E547" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16172,11 +16172,11 @@
         <v>849</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C548" s="4"/>
       <c r="D548" s="4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E548" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16192,11 +16192,11 @@
         <v>849</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C549" s="4"/>
       <c r="D549" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E549" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16212,11 +16212,11 @@
         <v>849</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C550" s="4"/>
       <c r="D550" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E550" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16232,11 +16232,11 @@
         <v>849</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C551" s="4"/>
       <c r="D551" s="4" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E551" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16252,11 +16252,11 @@
         <v>849</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C552" s="4"/>
       <c r="D552" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E552" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16272,11 +16272,11 @@
         <v>849</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C553" s="4"/>
       <c r="D553" s="4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E553" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16292,11 +16292,11 @@
         <v>849</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C554" s="4"/>
       <c r="D554" s="4" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E554" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16312,11 +16312,11 @@
         <v>849</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C555" s="4"/>
       <c r="D555" s="4" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E555" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16332,11 +16332,11 @@
         <v>849</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C556" s="4"/>
       <c r="D556" s="4" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E556" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16352,11 +16352,11 @@
         <v>849</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C557" s="4"/>
       <c r="D557" s="4" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E557" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16372,11 +16372,11 @@
         <v>849</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C558" s="4"/>
       <c r="D558" s="4" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E558" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16392,11 +16392,11 @@
         <v>849</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C559" s="4"/>
       <c r="D559" s="4" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E559" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16412,11 +16412,11 @@
         <v>849</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C560" s="4"/>
       <c r="D560" s="4" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E560" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16432,11 +16432,11 @@
         <v>849</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C561" s="4"/>
       <c r="D561" s="4" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="E561" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16452,11 +16452,11 @@
         <v>849</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C562" s="4"/>
       <c r="D562" s="4" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E562" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16472,11 +16472,11 @@
         <v>849</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C563" s="4"/>
       <c r="D563" s="4" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E563" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16492,11 +16492,11 @@
         <v>849</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C564" s="4"/>
       <c r="D564" s="4" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E564" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16512,11 +16512,11 @@
         <v>849</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C565" s="4"/>
       <c r="D565" s="4" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E565" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16532,11 +16532,11 @@
         <v>849</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C566" s="4"/>
       <c r="D566" s="4" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E566" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16552,11 +16552,11 @@
         <v>849</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C567" s="4"/>
       <c r="D567" s="4" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="E567" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16572,11 +16572,11 @@
         <v>849</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C568" s="4"/>
       <c r="D568" s="4" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E568" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16592,11 +16592,11 @@
         <v>849</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C569" s="4"/>
       <c r="D569" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E569" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16612,11 +16612,11 @@
         <v>849</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C570" s="4"/>
       <c r="D570" s="4" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E570" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16632,15 +16632,15 @@
         <v>849</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C571" s="4"/>
       <c r="D571" s="4" t="s">
-        <v>1238</v>
+        <v>1650</v>
       </c>
       <c r="E571" s="11" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;item&gt;Orthopedist/traumatologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Orthopedist/Traumatologist&lt;/item&gt;</v>
       </c>
       <c r="F571" s="11" t="str">
         <f t="shared" si="53"/>
@@ -16652,11 +16652,11 @@
         <v>849</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C572" s="4"/>
       <c r="D572" s="4" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="E572" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16672,11 +16672,11 @@
         <v>849</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C573" s="4"/>
       <c r="D573" s="4" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="E573" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16692,11 +16692,11 @@
         <v>849</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C574" s="4"/>
       <c r="D574" s="4" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="E574" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16712,11 +16712,11 @@
         <v>849</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C575" s="4"/>
       <c r="D575" s="4" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="E575" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16732,11 +16732,11 @@
         <v>849</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C576" s="4"/>
       <c r="D576" s="4" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="E576" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16752,11 +16752,11 @@
         <v>849</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C577" s="4"/>
       <c r="D577" s="4" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="E577" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16772,11 +16772,11 @@
         <v>849</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C578" s="4"/>
       <c r="D578" s="4" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="E578" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16792,11 +16792,11 @@
         <v>849</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C579" s="4"/>
       <c r="D579" s="4" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="E579" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16812,11 +16812,11 @@
         <v>849</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C580" s="4"/>
       <c r="D580" s="4" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E580" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16832,11 +16832,11 @@
         <v>849</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C581" s="4"/>
       <c r="D581" s="4" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="E581" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16852,11 +16852,11 @@
         <v>849</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C582" s="4"/>
       <c r="D582" s="4" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="E582" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16872,11 +16872,11 @@
         <v>849</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C583" s="4"/>
       <c r="D583" s="4" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="E583" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16892,11 +16892,11 @@
         <v>849</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C584" s="4"/>
       <c r="D584" s="4" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="E584" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16912,11 +16912,11 @@
         <v>849</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C585" s="4"/>
       <c r="D585" s="4" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E585" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16932,11 +16932,11 @@
         <v>849</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C586" s="4"/>
       <c r="D586" s="4" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="E586" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16952,11 +16952,11 @@
         <v>849</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C587" s="4"/>
       <c r="D587" s="4" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="E587" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16972,11 +16972,11 @@
         <v>849</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C588" s="4"/>
       <c r="D588" s="4" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="E588" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16992,11 +16992,11 @@
         <v>849</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="C589" s="4"/>
       <c r="D589" s="4" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="E589" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17012,11 +17012,11 @@
         <v>849</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C590" s="4"/>
       <c r="D590" s="4" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="E590" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17032,11 +17032,11 @@
         <v>849</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C591" s="4"/>
       <c r="D591" s="4" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="E591" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17052,11 +17052,11 @@
         <v>849</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C592" s="4"/>
       <c r="D592" s="4" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="E592" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17072,11 +17072,11 @@
         <v>849</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C593" s="4"/>
       <c r="D593" s="4" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="E593" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17092,11 +17092,11 @@
         <v>849</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C594" s="4"/>
       <c r="D594" s="4" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="E594" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17112,11 +17112,11 @@
         <v>849</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="C595" s="4"/>
       <c r="D595" s="4" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="E595" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17132,11 +17132,11 @@
         <v>849</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C596" s="4"/>
       <c r="D596" s="4" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="E596" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17152,11 +17152,11 @@
         <v>849</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C597" s="4"/>
       <c r="D597" s="4" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="E597" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17172,11 +17172,11 @@
         <v>849</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C598" s="4"/>
       <c r="D598" s="4" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="E598" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17192,15 +17192,15 @@
         <v>849</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C599" s="4"/>
       <c r="D599" s="4" t="s">
-        <v>1293</v>
+        <v>1651</v>
       </c>
       <c r="E599" s="11" t="str">
         <f t="shared" si="52"/>
-        <v>&lt;item&gt;Pediatritian/neonatologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Pediatritian/Neonatologist&lt;/item&gt;</v>
       </c>
       <c r="F599" s="11" t="str">
         <f t="shared" si="53"/>
@@ -17216,7 +17216,7 @@
       </c>
       <c r="C600" s="4"/>
       <c r="D600" s="4" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="E600" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17232,11 +17232,11 @@
         <v>849</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="C601" s="4"/>
       <c r="D601" s="4" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="E601" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17252,11 +17252,11 @@
         <v>849</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C602" s="4"/>
       <c r="D602" s="4" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="E602" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17272,11 +17272,11 @@
         <v>849</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="C603" s="4"/>
       <c r="D603" s="4" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="E603" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17295,10 +17295,10 @@
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
       <c r="E604" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F604" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
@@ -17322,11 +17322,11 @@
         <v>849</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C606" s="4"/>
       <c r="D606" s="4" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="E606" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17342,11 +17342,11 @@
         <v>849</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C607" s="4"/>
       <c r="D607" s="4" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="E607" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17362,11 +17362,11 @@
         <v>849</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C608" s="4"/>
       <c r="D608" s="4" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="E608" s="11" t="str">
         <f t="shared" ref="E608:E631" si="55">IF(ISBLANK(C608),"","&lt;!-- "&amp;C608&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D608&amp;"&lt;/item&gt;"</f>
@@ -17382,11 +17382,11 @@
         <v>849</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C609" s="4"/>
       <c r="D609" s="4" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="E609" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17402,11 +17402,11 @@
         <v>849</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C610" s="4"/>
       <c r="D610" s="4" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="E610" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17422,11 +17422,11 @@
         <v>849</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="C611" s="4"/>
       <c r="D611" s="4" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="E611" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17442,11 +17442,11 @@
         <v>849</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C612" s="4"/>
       <c r="D612" s="4" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="E612" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17462,11 +17462,11 @@
         <v>849</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C613" s="4"/>
       <c r="D613" s="4" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="E613" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17482,11 +17482,11 @@
         <v>849</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="C614" s="4"/>
       <c r="D614" s="4" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="E614" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17502,11 +17502,11 @@
         <v>849</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C615" s="4"/>
       <c r="D615" s="4" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="E615" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17522,11 +17522,11 @@
         <v>849</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C616" s="4"/>
       <c r="D616" s="4" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="E616" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17542,11 +17542,11 @@
         <v>849</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C617" s="4"/>
       <c r="D617" s="4" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="E617" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17562,11 +17562,11 @@
         <v>849</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="C618" s="4"/>
       <c r="D618" s="4" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="E618" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17582,11 +17582,11 @@
         <v>849</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C619" s="4"/>
       <c r="D619" s="4" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="E619" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17602,11 +17602,11 @@
         <v>849</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="C620" s="4"/>
       <c r="D620" s="4" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E620" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17622,11 +17622,11 @@
         <v>849</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="C621" s="4"/>
       <c r="D621" s="4" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="E621" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17642,11 +17642,11 @@
         <v>849</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="C622" s="4"/>
       <c r="D622" s="4" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E622" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17662,11 +17662,11 @@
         <v>849</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="C623" s="4"/>
       <c r="D623" s="4" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="E623" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17682,11 +17682,11 @@
         <v>849</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C624" s="4"/>
       <c r="D624" s="4" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="E624" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17702,11 +17702,11 @@
         <v>849</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="C625" s="4"/>
       <c r="D625" s="4" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="E625" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17722,11 +17722,11 @@
         <v>849</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="C626" s="4"/>
       <c r="D626" s="4" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="E626" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17742,11 +17742,11 @@
         <v>849</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="C627" s="4"/>
       <c r="D627" s="4" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="E627" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17762,11 +17762,11 @@
         <v>849</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C628" s="4"/>
       <c r="D628" s="4" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="E628" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17782,11 +17782,11 @@
         <v>849</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="C629" s="4"/>
       <c r="D629" s="4" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="E629" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17802,11 +17802,11 @@
         <v>849</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="C630" s="4"/>
       <c r="D630" s="4" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E630" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17822,11 +17822,11 @@
         <v>849</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="C631" s="4"/>
       <c r="D631" s="4" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="E631" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17845,10 +17845,10 @@
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
       <c r="E632" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F632" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="633" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -17872,11 +17872,11 @@
         <v>849</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="C634" s="4"/>
       <c r="D634" s="4" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="E634" s="11" t="str">
         <f t="shared" ref="E634:E642" si="56">IF(ISBLANK(C634),"","&lt;!-- "&amp;C634&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D634&amp;"&lt;/item&gt;"</f>
@@ -17892,11 +17892,11 @@
         <v>849</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="C635" s="4"/>
       <c r="D635" s="4" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="E635" s="11" t="str">
         <f t="shared" si="56"/>
@@ -17912,11 +17912,11 @@
         <v>849</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="C636" s="4"/>
       <c r="D636" s="4" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="E636" s="11" t="str">
         <f t="shared" si="56"/>
@@ -17932,11 +17932,11 @@
         <v>849</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="C637" s="4"/>
       <c r="D637" s="4" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="E637" s="11" t="str">
         <f t="shared" si="56"/>
@@ -17952,11 +17952,11 @@
         <v>849</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="C638" s="4"/>
       <c r="D638" s="4" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="E638" s="11" t="str">
         <f t="shared" si="56"/>
@@ -17972,11 +17972,11 @@
         <v>849</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="C639" s="4"/>
       <c r="D639" s="4" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="E639" s="11" t="str">
         <f t="shared" si="56"/>
@@ -17992,11 +17992,11 @@
         <v>849</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="C640" s="4"/>
       <c r="D640" s="4" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="E640" s="11" t="str">
         <f t="shared" si="56"/>
@@ -18012,11 +18012,11 @@
         <v>849</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C641" s="4"/>
       <c r="D641" s="4" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="E641" s="11" t="str">
         <f t="shared" si="56"/>
@@ -18032,11 +18032,11 @@
         <v>849</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="C642" s="4"/>
       <c r="D642" s="4" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="E642" s="11" t="str">
         <f t="shared" si="56"/>
@@ -18055,10 +18055,10 @@
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
       <c r="E643" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F643" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
@@ -18082,11 +18082,11 @@
         <v>849</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C645" s="4"/>
       <c r="D645" s="4" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="E645" s="11" t="str">
         <f t="shared" ref="E645:E689" si="58">IF(ISBLANK(C645),"","&lt;!-- "&amp;C645&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D645&amp;"&lt;/item&gt;"</f>
@@ -18102,11 +18102,11 @@
         <v>849</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C646" s="4"/>
       <c r="D646" s="4" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="E646" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18122,11 +18122,11 @@
         <v>849</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C647" s="4"/>
       <c r="D647" s="4" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="E647" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18142,11 +18142,11 @@
         <v>849</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C648" s="4"/>
       <c r="D648" s="4" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="E648" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18162,11 +18162,11 @@
         <v>849</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C649" s="4"/>
       <c r="D649" s="4" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="E649" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18182,11 +18182,11 @@
         <v>849</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C650" s="4"/>
       <c r="D650" s="4" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="E650" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18202,11 +18202,11 @@
         <v>849</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C651" s="4"/>
       <c r="D651" s="4" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="E651" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18222,11 +18222,11 @@
         <v>849</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C652" s="4"/>
       <c r="D652" s="4" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="E652" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18242,11 +18242,11 @@
         <v>849</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C653" s="4"/>
       <c r="D653" s="4" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="E653" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18262,11 +18262,11 @@
         <v>849</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C654" s="4"/>
       <c r="D654" s="4" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="E654" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18282,11 +18282,11 @@
         <v>849</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C655" s="4"/>
       <c r="D655" s="4" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="E655" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18302,11 +18302,11 @@
         <v>849</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C656" s="4"/>
       <c r="D656" s="4" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="E656" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18322,11 +18322,11 @@
         <v>849</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C657" s="4"/>
       <c r="D657" s="4" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="E657" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18342,11 +18342,11 @@
         <v>849</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C658" s="4"/>
       <c r="D658" s="4" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="E658" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18362,11 +18362,11 @@
         <v>849</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C659" s="4"/>
       <c r="D659" s="4" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="E659" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18382,11 +18382,11 @@
         <v>849</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C660" s="4"/>
       <c r="D660" s="4" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="E660" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18402,11 +18402,11 @@
         <v>849</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C661" s="4"/>
       <c r="D661" s="4" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="E661" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18422,11 +18422,11 @@
         <v>849</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C662" s="4"/>
       <c r="D662" s="4" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="E662" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18442,11 +18442,11 @@
         <v>849</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C663" s="4"/>
       <c r="D663" s="4" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="E663" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18462,11 +18462,11 @@
         <v>849</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C664" s="4"/>
       <c r="D664" s="4" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="E664" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18482,11 +18482,11 @@
         <v>849</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C665" s="4"/>
       <c r="D665" s="4" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="E665" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18502,11 +18502,11 @@
         <v>849</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C666" s="4"/>
       <c r="D666" s="4" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="E666" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18522,11 +18522,11 @@
         <v>849</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C667" s="4"/>
       <c r="D667" s="4" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="E667" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18542,11 +18542,11 @@
         <v>849</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C668" s="4"/>
       <c r="D668" s="4" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="E668" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18562,11 +18562,11 @@
         <v>849</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C669" s="4"/>
       <c r="D669" s="4" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="E669" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18582,11 +18582,11 @@
         <v>849</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C670" s="4"/>
       <c r="D670" s="4" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="E670" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18602,11 +18602,11 @@
         <v>849</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C671" s="4"/>
       <c r="D671" s="4" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="E671" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18622,11 +18622,11 @@
         <v>849</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C672" s="4"/>
       <c r="D672" s="4" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="E672" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18642,11 +18642,11 @@
         <v>849</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="C673" s="4"/>
       <c r="D673" s="4" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="E673" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18662,11 +18662,11 @@
         <v>849</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C674" s="4"/>
       <c r="D674" s="4" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="E674" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18682,11 +18682,11 @@
         <v>849</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="C675" s="4"/>
       <c r="D675" s="4" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="E675" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18702,11 +18702,11 @@
         <v>849</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C676" s="4"/>
       <c r="D676" s="4" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="E676" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18722,11 +18722,11 @@
         <v>849</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C677" s="4"/>
       <c r="D677" s="4" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="E677" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18742,11 +18742,11 @@
         <v>849</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C678" s="4"/>
       <c r="D678" s="4" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="E678" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18762,11 +18762,11 @@
         <v>849</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C679" s="4"/>
       <c r="D679" s="4" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="E679" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18782,11 +18782,11 @@
         <v>849</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C680" s="4"/>
       <c r="D680" s="4" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="E680" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18802,11 +18802,11 @@
         <v>849</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="C681" s="4"/>
       <c r="D681" s="4" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="E681" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18822,11 +18822,11 @@
         <v>849</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="C682" s="4"/>
       <c r="D682" s="4" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E682" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18842,11 +18842,11 @@
         <v>849</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="C683" s="4"/>
       <c r="D683" s="4" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="E683" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18862,11 +18862,11 @@
         <v>849</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="C684" s="4"/>
       <c r="D684" s="4" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="E684" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18882,11 +18882,11 @@
         <v>849</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C685" s="4"/>
       <c r="D685" s="4" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="E685" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18902,11 +18902,11 @@
         <v>849</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="C686" s="4"/>
       <c r="D686" s="4" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="E686" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18922,11 +18922,11 @@
         <v>849</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="C687" s="4"/>
       <c r="D687" s="4" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="E687" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18942,11 +18942,11 @@
         <v>849</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="C688" s="4"/>
       <c r="D688" s="4" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="E688" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18962,11 +18962,11 @@
         <v>849</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="C689" s="4"/>
       <c r="D689" s="4" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="E689" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18985,10 +18985,10 @@
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
       <c r="E690" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="F690" s="11" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
   </sheetData>

--- a/Вектор развития ru-en 1.0 (53).xlsx
+++ b/Вектор развития ru-en 1.0 (53).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="615" windowWidth="20775" windowHeight="9600"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="Вектор_развития_ru_en" localSheetId="0">Лист1!$A$1:$G$689</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -3538,9 +3538,6 @@
     <t>Мясное пюре</t>
   </si>
   <si>
-    <t>meat mash</t>
-  </si>
-  <si>
     <t>граммы</t>
   </si>
   <si>
@@ -4976,6 +4973,9 @@
   </si>
   <si>
     <t>Pediatritian/Neonatologist</t>
+  </si>
+  <si>
+    <t>Meat mash</t>
   </si>
 </sst>
 </file>
@@ -5393,8 +5393,8 @@
   </sheetPr>
   <dimension ref="A1:G690"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
+      <selection activeCell="D535" sqref="D535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5439,7 +5439,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="2" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>IF(ISBLANK(C3),"","&lt;!-- "&amp;C3&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A3&amp;"""&gt;"&amp;D3&amp;"&lt;/string&gt;"</f>
@@ -5476,7 +5476,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>IF(ISBLANK(C4),"","&lt;!-- "&amp;C4&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A4&amp;"""&gt;"&amp;D4&amp;"&lt;/string&gt;"</f>
@@ -5487,7 +5487,7 @@
         <v>&lt;!-- \n - символ переноса строки --&gt;NEWLINE&lt;string name="app_name_splash"&gt;Вектор\nразвития&lt;/string&gt;</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" ref="E5:E70" si="1">IF(ISBLANK(C5),"","&lt;!-- "&amp;C5&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A5&amp;"""&gt;"&amp;D5&amp;"&lt;/string&gt;"</f>
@@ -5510,7 +5510,7 @@
         <v>&lt;string name="drawer_item_calendar"&gt;Календарь&lt;/string&gt;</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5533,7 +5533,7 @@
         <v>&lt;string name="drawer_item_development_diary"&gt;Дневник развития&lt;/string&gt;</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5707,7 +5707,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5820,14 +5820,14 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5840,14 +5840,14 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5969,7 +5969,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E35" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E36" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E37" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E39" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E41" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E56" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E57" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E68" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E72" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E74" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E75" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E76" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E77" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E78" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E79" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E80" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E81" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E82" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E83" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E84" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E85" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E86" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E87" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E88" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E89" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E90" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E91" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E92" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E93" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E94" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E95" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="E96" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E98" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E99" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E101" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E102" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E103" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7491,7 +7491,7 @@
         <v>242</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E104" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E105" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E106" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7553,7 +7553,7 @@
         <v>249</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E107" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7595,7 +7595,7 @@
         <v>255</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E109" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7637,7 +7637,7 @@
         <v>261</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E111" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7659,7 +7659,7 @@
         <v>264</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E112" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7681,7 +7681,7 @@
         <v>267</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E113" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7703,7 +7703,7 @@
         <v>270</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E114" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E115" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E116" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E117" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E125" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E126" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8043,7 +8043,7 @@
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E131" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E135" s="4" t="str">
         <f t="shared" ref="E135:E198" si="5">IF(ISBLANK(C135),"","&lt;!-- "&amp;C135&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A135&amp;"""&gt;"&amp;D135&amp;"&lt;/string&gt;"</f>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E139" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E151" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8625,7 +8625,7 @@
         <v>399</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E160" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8647,7 +8647,7 @@
         <v>399</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E161" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8703,11 +8703,11 @@
         <v>408</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E164" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8723,11 +8723,11 @@
         <v>409</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E165" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8743,11 +8743,11 @@
         <v>410</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E166" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8763,11 +8763,11 @@
         <v>411</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E167" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E174" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9089,7 +9089,7 @@
         <v>458</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E183" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9111,7 +9111,7 @@
         <v>461</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E184" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9133,7 +9133,7 @@
         <v>464</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E185" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E194" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E195" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E196" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9373,7 +9373,7 @@
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E197" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E201" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E204" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E206" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E207" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E209" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E210" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E211" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9669,11 +9669,11 @@
         <v>533</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="E212" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E213" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E215" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10138,7 +10138,7 @@
         <v>601</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>602</v>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E245" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E246" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E251" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10501,7 +10501,7 @@
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E253" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E254" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10643,7 +10643,7 @@
         <v>672</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E260" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10863,7 +10863,7 @@
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E271" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10883,7 +10883,7 @@
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E272" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10943,7 +10943,7 @@
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E275" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10963,7 +10963,7 @@
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E276" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11103,7 +11103,7 @@
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E283" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E309" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11665,7 +11665,7 @@
         <v>815</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E311" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11827,7 +11827,7 @@
         <v>11</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E319" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11847,7 +11847,7 @@
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E320" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11869,7 +11869,7 @@
         <v>843</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E321" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11891,7 +11891,7 @@
         <v>846</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E322" s="4" t="str">
         <f t="shared" si="9"/>
@@ -12176,10 +12176,10 @@
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12446,10 +12446,10 @@
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F351" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12491,7 +12491,7 @@
         <v>892</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E354" s="4" t="str">
         <f>IF(ISBLANK(C354),"","&lt;!-- "&amp;C354&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A354&amp;"""&gt;"&amp;D354&amp;"&lt;/item&gt;"</f>
@@ -12513,7 +12513,7 @@
         <v>895</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E355" s="4" t="str">
         <f t="shared" ref="E355:E358" si="13">IF(ISBLANK(C355),"","&lt;!-- "&amp;C355&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A355&amp;"""&gt;"&amp;D355&amp;"&lt;/item&gt;"</f>
@@ -12535,7 +12535,7 @@
         <v>896</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E356" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12557,7 +12557,7 @@
         <v>898</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E357" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12579,7 +12579,7 @@
         <v>900</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E358" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12598,10 +12598,10 @@
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="F359" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -12633,7 +12633,7 @@
         <v>903</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E361" s="4" t="str">
         <f t="shared" ref="E361:E365" si="15">IF(ISBLANK(C361),"","&lt;!-- "&amp;C361&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A361&amp;"""&gt;"&amp;D361&amp;"&lt;/item&gt;"</f>
@@ -12655,7 +12655,7 @@
         <v>905</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E362" s="4" t="str">
         <f t="shared" si="15"/>
@@ -12677,7 +12677,7 @@
         <v>896</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E363" s="4" t="str">
         <f t="shared" si="15"/>
@@ -12699,7 +12699,7 @@
         <v>907</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E364" s="4" t="str">
         <f t="shared" si="15"/>
@@ -12721,7 +12721,7 @@
         <v>908</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E365" s="4" t="str">
         <f t="shared" si="15"/>
@@ -12740,10 +12740,10 @@
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="F366" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -12775,7 +12775,7 @@
         <v>911</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E368" s="4" t="str">
         <f t="shared" ref="E368:E372" si="17">IF(ISBLANK(C368),"","&lt;!-- "&amp;C368&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A368&amp;"""&gt;"&amp;D368&amp;"&lt;/item&gt;"</f>
@@ -12797,7 +12797,7 @@
         <v>913</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E369" s="4" t="str">
         <f t="shared" si="17"/>
@@ -12819,7 +12819,7 @@
         <v>896</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E370" s="4" t="str">
         <f t="shared" si="17"/>
@@ -12841,7 +12841,7 @@
         <v>915</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E371" s="4" t="str">
         <f t="shared" si="17"/>
@@ -12863,7 +12863,7 @@
         <v>916</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E372" s="4" t="str">
         <f t="shared" si="17"/>
@@ -12882,10 +12882,10 @@
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="F373" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12907,7 +12907,7 @@
       </c>
       <c r="C375" s="4"/>
       <c r="D375" s="4" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E375" s="11" t="str">
         <f t="shared" ref="E375:E378" si="19">IF(ISBLANK(C375),"","&lt;!-- "&amp;C375&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A375&amp;"""&gt;"&amp;D375&amp;"&lt;/string&gt;"</f>
@@ -12947,7 +12947,7 @@
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E377" s="11" t="str">
         <f t="shared" si="19"/>
@@ -12967,7 +12967,7 @@
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="4" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E378" s="11" t="str">
         <f t="shared" si="19"/>
@@ -13003,7 +13003,7 @@
       </c>
       <c r="C380" s="4"/>
       <c r="D380" s="4" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E380" s="11" t="str">
         <f t="shared" ref="E380:E381" si="21">IF(ISBLANK(C380),"","&lt;!-- "&amp;C380&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D380&amp;"&lt;/item&gt;"</f>
@@ -13042,10 +13042,10 @@
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F382" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13212,10 +13212,10 @@
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F391" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -13237,7 +13237,7 @@
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E393" s="4" t="str">
         <f t="shared" ref="E393:E396" si="24">IF(ISBLANK(C393),"","&lt;!-- "&amp;C393&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A393&amp;"""&gt;"&amp;D393&amp;"&lt;/string&gt;"</f>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="4" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="E398" s="4" t="str">
         <f t="shared" ref="E398:E404" si="25">IF(ISBLANK(C398),"","&lt;!-- "&amp;C398&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D398&amp;"&lt;/item&gt;"</f>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="C399" s="4"/>
       <c r="D399" s="4" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E399" s="4" t="str">
         <f t="shared" si="25"/>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="C400" s="4"/>
       <c r="D400" s="4" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E400" s="4" t="str">
         <f t="shared" si="25"/>
@@ -13393,7 +13393,7 @@
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="4" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E401" s="4" t="str">
         <f t="shared" si="25"/>
@@ -13472,10 +13472,10 @@
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F405" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="C408" s="4"/>
       <c r="D408" s="4" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E408" s="4" t="str">
         <f t="shared" si="27"/>
@@ -13539,11 +13539,11 @@
         <v>849</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C409" s="4"/>
       <c r="D409" s="4" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E409" s="4" t="str">
         <f t="shared" si="27"/>
@@ -13579,7 +13579,7 @@
         <v>849</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C411" s="4"/>
       <c r="D411" s="4" t="s">
@@ -13642,10 +13642,10 @@
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F414" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="C418" s="4"/>
       <c r="D418" s="4" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E418" s="4" t="str">
         <f t="shared" si="29"/>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="C419" s="4"/>
       <c r="D419" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E419" s="4" t="str">
         <f t="shared" si="29"/>
@@ -13749,11 +13749,11 @@
         <v>849</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C420" s="4"/>
       <c r="D420" s="4" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E420" s="4" t="str">
         <f t="shared" si="29"/>
@@ -13773,7 +13773,7 @@
       </c>
       <c r="C421" s="4"/>
       <c r="D421" s="4" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E421" s="4" t="str">
         <f t="shared" si="29"/>
@@ -13789,7 +13789,7 @@
         <v>849</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4" t="s">
@@ -13812,10 +13812,10 @@
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F423" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -14072,10 +14072,10 @@
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F437" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -14143,7 +14143,7 @@
       </c>
       <c r="C441" s="4"/>
       <c r="D441" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E441" s="4" t="str">
         <f t="shared" si="34"/>
@@ -14242,10 +14242,10 @@
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F446" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -14309,7 +14309,7 @@
         <v>849</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="4" t="s">
@@ -14333,7 +14333,7 @@
       </c>
       <c r="C451" s="4"/>
       <c r="D451" s="4" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E451" s="4" t="str">
         <f t="shared" si="36"/>
@@ -14413,10 +14413,10 @@
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F455" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -14454,11 +14454,11 @@
         <v>1048</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C458" s="4"/>
       <c r="D458" s="4" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E458" s="4" t="str">
         <f t="shared" si="38"/>
@@ -14593,10 +14593,10 @@
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F465" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -14664,7 +14664,7 @@
       </c>
       <c r="C469" s="4"/>
       <c r="D469" s="4" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E469" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="C480" s="4"/>
       <c r="D480" s="4" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E480" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14924,7 +14924,7 @@
       </c>
       <c r="C482" s="4"/>
       <c r="D482" s="4" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E482" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14984,7 +14984,7 @@
       </c>
       <c r="C485" s="4"/>
       <c r="D485" s="4" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E485" s="4" t="str">
         <f t="shared" si="42"/>
@@ -15040,11 +15040,11 @@
         <v>849</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C488" s="4"/>
       <c r="D488" s="4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E488" s="4" t="str">
         <f t="shared" si="42"/>
@@ -15123,10 +15123,10 @@
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F492" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -15164,11 +15164,11 @@
         <v>1110</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C495" s="4"/>
       <c r="D495" s="4" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E495" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15184,11 +15184,11 @@
         <v>1111</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C496" s="4"/>
       <c r="D496" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E496" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15204,11 +15204,11 @@
         <v>1112</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C497" s="4"/>
       <c r="D497" s="4" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E497" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15230,7 +15230,7 @@
         <v>1115</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E498" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15326,7 +15326,7 @@
       </c>
       <c r="C503" s="4"/>
       <c r="D503" s="4" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="E503" s="4" t="str">
         <f t="shared" ref="E503:E505" si="45">IF(ISBLANK(C503),"","&lt;!-- "&amp;C503&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D503&amp;"&lt;/item&gt;"</f>
@@ -15346,7 +15346,7 @@
       </c>
       <c r="C504" s="4"/>
       <c r="D504" s="4" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E504" s="4" t="str">
         <f t="shared" si="45"/>
@@ -15362,11 +15362,11 @@
         <v>849</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C505" s="4"/>
       <c r="D505" s="4" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E505" s="4" t="str">
         <f t="shared" si="45"/>
@@ -15385,10 +15385,10 @@
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F506" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="C513" s="4"/>
       <c r="D513" s="4" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E513" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15572,7 +15572,7 @@
         <v>849</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C516" s="4"/>
       <c r="D516" s="4" t="s">
@@ -15696,7 +15696,7 @@
       </c>
       <c r="C522" s="4"/>
       <c r="D522" s="4" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E522" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="C525" s="4"/>
       <c r="D525" s="4" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E525" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15792,7 +15792,7 @@
         <v>849</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C527" s="4"/>
       <c r="D527" s="4" t="s">
@@ -15815,10 +15815,10 @@
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F528" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -15916,11 +15916,11 @@
       </c>
       <c r="C534" s="4"/>
       <c r="D534" s="4" t="s">
-        <v>1172</v>
+        <v>1651</v>
       </c>
       <c r="E534" s="11" t="str">
         <f t="shared" si="49"/>
-        <v>&lt;item&gt;meat mash&lt;/item&gt;</v>
+        <v>&lt;item&gt;Meat mash&lt;/item&gt;</v>
       </c>
       <c r="F534" s="11" t="str">
         <f t="shared" si="50"/>
@@ -15935,10 +15935,10 @@
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="E535" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F535" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
@@ -15962,11 +15962,11 @@
         <v>849</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C537" s="4"/>
       <c r="D537" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E537" s="11" t="str">
         <f t="shared" ref="E537:E538" si="51">IF(ISBLANK(C537),"","&lt;!-- "&amp;C537&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D537&amp;"&lt;/item&gt;"</f>
@@ -15982,11 +15982,11 @@
         <v>849</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C538" s="4"/>
       <c r="D538" s="4" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E538" s="11" t="str">
         <f t="shared" si="51"/>
@@ -16005,10 +16005,10 @@
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F539" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
@@ -16032,11 +16032,11 @@
         <v>849</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C541" s="4"/>
       <c r="D541" s="4" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E541" s="11" t="str">
         <f t="shared" ref="E541:E607" si="52">IF(ISBLANK(C541),"","&lt;!-- "&amp;C541&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D541&amp;"&lt;/item&gt;"</f>
@@ -16052,11 +16052,11 @@
         <v>849</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C542" s="4"/>
       <c r="D542" s="4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E542" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16072,11 +16072,11 @@
         <v>849</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C543" s="4"/>
       <c r="D543" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E543" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16092,11 +16092,11 @@
         <v>849</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C544" s="4"/>
       <c r="D544" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E544" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16112,11 +16112,11 @@
         <v>849</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C545" s="4"/>
       <c r="D545" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E545" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16132,11 +16132,11 @@
         <v>849</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C546" s="4"/>
       <c r="D546" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E546" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16152,11 +16152,11 @@
         <v>849</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C547" s="4"/>
       <c r="D547" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E547" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16172,11 +16172,11 @@
         <v>849</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C548" s="4"/>
       <c r="D548" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E548" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16192,11 +16192,11 @@
         <v>849</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C549" s="4"/>
       <c r="D549" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E549" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16212,11 +16212,11 @@
         <v>849</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C550" s="4"/>
       <c r="D550" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E550" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16232,11 +16232,11 @@
         <v>849</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C551" s="4"/>
       <c r="D551" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E551" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16252,11 +16252,11 @@
         <v>849</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C552" s="4"/>
       <c r="D552" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E552" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16272,11 +16272,11 @@
         <v>849</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C553" s="4"/>
       <c r="D553" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E553" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16292,11 +16292,11 @@
         <v>849</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C554" s="4"/>
       <c r="D554" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E554" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16312,11 +16312,11 @@
         <v>849</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C555" s="4"/>
       <c r="D555" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E555" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16332,11 +16332,11 @@
         <v>849</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C556" s="4"/>
       <c r="D556" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E556" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16352,11 +16352,11 @@
         <v>849</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C557" s="4"/>
       <c r="D557" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E557" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16372,11 +16372,11 @@
         <v>849</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C558" s="4"/>
       <c r="D558" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E558" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16392,11 +16392,11 @@
         <v>849</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C559" s="4"/>
       <c r="D559" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E559" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16412,11 +16412,11 @@
         <v>849</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C560" s="4"/>
       <c r="D560" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E560" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16432,11 +16432,11 @@
         <v>849</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C561" s="4"/>
       <c r="D561" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E561" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16452,11 +16452,11 @@
         <v>849</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C562" s="4"/>
       <c r="D562" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E562" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16472,11 +16472,11 @@
         <v>849</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C563" s="4"/>
       <c r="D563" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E563" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16492,11 +16492,11 @@
         <v>849</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C564" s="4"/>
       <c r="D564" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E564" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16512,11 +16512,11 @@
         <v>849</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C565" s="4"/>
       <c r="D565" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E565" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16532,11 +16532,11 @@
         <v>849</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C566" s="4"/>
       <c r="D566" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E566" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16552,11 +16552,11 @@
         <v>849</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C567" s="4"/>
       <c r="D567" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E567" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16572,11 +16572,11 @@
         <v>849</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C568" s="4"/>
       <c r="D568" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E568" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16592,11 +16592,11 @@
         <v>849</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C569" s="4"/>
       <c r="D569" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E569" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16612,11 +16612,11 @@
         <v>849</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C570" s="4"/>
       <c r="D570" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E570" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16632,11 +16632,11 @@
         <v>849</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C571" s="4"/>
       <c r="D571" s="4" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E571" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16652,11 +16652,11 @@
         <v>849</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C572" s="4"/>
       <c r="D572" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E572" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16672,11 +16672,11 @@
         <v>849</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C573" s="4"/>
       <c r="D573" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E573" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16692,11 +16692,11 @@
         <v>849</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C574" s="4"/>
       <c r="D574" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E574" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16712,11 +16712,11 @@
         <v>849</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C575" s="4"/>
       <c r="D575" s="4" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E575" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16732,11 +16732,11 @@
         <v>849</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C576" s="4"/>
       <c r="D576" s="4" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E576" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16752,11 +16752,11 @@
         <v>849</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C577" s="4"/>
       <c r="D577" s="4" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E577" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16772,11 +16772,11 @@
         <v>849</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C578" s="4"/>
       <c r="D578" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E578" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16792,11 +16792,11 @@
         <v>849</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C579" s="4"/>
       <c r="D579" s="4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E579" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16812,11 +16812,11 @@
         <v>849</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C580" s="4"/>
       <c r="D580" s="4" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E580" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16832,11 +16832,11 @@
         <v>849</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C581" s="4"/>
       <c r="D581" s="4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E581" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16852,11 +16852,11 @@
         <v>849</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C582" s="4"/>
       <c r="D582" s="4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E582" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16872,11 +16872,11 @@
         <v>849</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C583" s="4"/>
       <c r="D583" s="4" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E583" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16892,11 +16892,11 @@
         <v>849</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C584" s="4"/>
       <c r="D584" s="4" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E584" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16912,11 +16912,11 @@
         <v>849</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C585" s="4"/>
       <c r="D585" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E585" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16932,11 +16932,11 @@
         <v>849</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C586" s="4"/>
       <c r="D586" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E586" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16952,11 +16952,11 @@
         <v>849</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C587" s="4"/>
       <c r="D587" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E587" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16972,11 +16972,11 @@
         <v>849</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C588" s="4"/>
       <c r="D588" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E588" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16992,11 +16992,11 @@
         <v>849</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C589" s="4"/>
       <c r="D589" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E589" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17012,11 +17012,11 @@
         <v>849</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C590" s="4"/>
       <c r="D590" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E590" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17032,11 +17032,11 @@
         <v>849</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C591" s="4"/>
       <c r="D591" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E591" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17052,11 +17052,11 @@
         <v>849</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C592" s="4"/>
       <c r="D592" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E592" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17072,11 +17072,11 @@
         <v>849</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C593" s="4"/>
       <c r="D593" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E593" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17092,11 +17092,11 @@
         <v>849</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C594" s="4"/>
       <c r="D594" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E594" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17112,11 +17112,11 @@
         <v>849</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C595" s="4"/>
       <c r="D595" s="4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E595" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17132,11 +17132,11 @@
         <v>849</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C596" s="4"/>
       <c r="D596" s="4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E596" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17152,11 +17152,11 @@
         <v>849</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C597" s="4"/>
       <c r="D597" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E597" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17172,11 +17172,11 @@
         <v>849</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C598" s="4"/>
       <c r="D598" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E598" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17192,11 +17192,11 @@
         <v>849</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C599" s="4"/>
       <c r="D599" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E599" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17216,7 +17216,7 @@
       </c>
       <c r="C600" s="4"/>
       <c r="D600" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E600" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17232,11 +17232,11 @@
         <v>849</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C601" s="4"/>
       <c r="D601" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E601" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17252,11 +17252,11 @@
         <v>849</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C602" s="4"/>
       <c r="D602" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E602" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17272,11 +17272,11 @@
         <v>849</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C603" s="4"/>
       <c r="D603" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E603" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17295,10 +17295,10 @@
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
       <c r="E604" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F604" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
@@ -17322,11 +17322,11 @@
         <v>849</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C606" s="4"/>
       <c r="D606" s="4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E606" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17342,11 +17342,11 @@
         <v>849</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C607" s="4"/>
       <c r="D607" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E607" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17362,11 +17362,11 @@
         <v>849</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C608" s="4"/>
       <c r="D608" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E608" s="11" t="str">
         <f t="shared" ref="E608:E631" si="55">IF(ISBLANK(C608),"","&lt;!-- "&amp;C608&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D608&amp;"&lt;/item&gt;"</f>
@@ -17382,11 +17382,11 @@
         <v>849</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C609" s="4"/>
       <c r="D609" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E609" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17402,11 +17402,11 @@
         <v>849</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C610" s="4"/>
       <c r="D610" s="4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E610" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17422,11 +17422,11 @@
         <v>849</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C611" s="4"/>
       <c r="D611" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E611" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17442,11 +17442,11 @@
         <v>849</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C612" s="4"/>
       <c r="D612" s="4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E612" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17462,11 +17462,11 @@
         <v>849</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C613" s="4"/>
       <c r="D613" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E613" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17482,11 +17482,11 @@
         <v>849</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C614" s="4"/>
       <c r="D614" s="4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E614" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17502,11 +17502,11 @@
         <v>849</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C615" s="4"/>
       <c r="D615" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E615" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17522,11 +17522,11 @@
         <v>849</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C616" s="4"/>
       <c r="D616" s="4" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E616" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17542,11 +17542,11 @@
         <v>849</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C617" s="4"/>
       <c r="D617" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E617" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17562,11 +17562,11 @@
         <v>849</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C618" s="4"/>
       <c r="D618" s="4" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E618" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17582,11 +17582,11 @@
         <v>849</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C619" s="4"/>
       <c r="D619" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E619" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17602,11 +17602,11 @@
         <v>849</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C620" s="4"/>
       <c r="D620" s="4" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E620" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17622,11 +17622,11 @@
         <v>849</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C621" s="4"/>
       <c r="D621" s="4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E621" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17642,11 +17642,11 @@
         <v>849</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C622" s="4"/>
       <c r="D622" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E622" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17662,11 +17662,11 @@
         <v>849</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C623" s="4"/>
       <c r="D623" s="4" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E623" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17682,11 +17682,11 @@
         <v>849</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C624" s="4"/>
       <c r="D624" s="4" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E624" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17702,11 +17702,11 @@
         <v>849</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C625" s="4"/>
       <c r="D625" s="4" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E625" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17722,11 +17722,11 @@
         <v>849</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C626" s="4"/>
       <c r="D626" s="4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E626" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17742,11 +17742,11 @@
         <v>849</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C627" s="4"/>
       <c r="D627" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E627" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17762,11 +17762,11 @@
         <v>849</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C628" s="4"/>
       <c r="D628" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E628" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17782,11 +17782,11 @@
         <v>849</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C629" s="4"/>
       <c r="D629" s="4" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E629" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17802,11 +17802,11 @@
         <v>849</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C630" s="4"/>
       <c r="D630" s="4" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E630" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17822,11 +17822,11 @@
         <v>849</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C631" s="4"/>
       <c r="D631" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E631" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17845,10 +17845,10 @@
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
       <c r="E632" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F632" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="633" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -17872,11 +17872,11 @@
         <v>849</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C634" s="4"/>
       <c r="D634" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E634" s="11" t="str">
         <f t="shared" ref="E634:E642" si="56">IF(ISBLANK(C634),"","&lt;!-- "&amp;C634&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D634&amp;"&lt;/item&gt;"</f>
@@ -17892,11 +17892,11 @@
         <v>849</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C635" s="4"/>
       <c r="D635" s="4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E635" s="11" t="str">
         <f t="shared" si="56"/>
@@ -17912,11 +17912,11 @@
         <v>849</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C636" s="4"/>
       <c r="D636" s="4" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E636" s="11" t="str">
         <f t="shared" si="56"/>
@@ -17932,11 +17932,11 @@
         <v>849</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C637" s="4"/>
       <c r="D637" s="4" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E637" s="11" t="str">
         <f t="shared" si="56"/>
@@ -17952,11 +17952,11 @@
         <v>849</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C638" s="4"/>
       <c r="D638" s="4" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E638" s="11" t="str">
         <f t="shared" si="56"/>
@@ -17972,11 +17972,11 @@
         <v>849</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C639" s="4"/>
       <c r="D639" s="4" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E639" s="11" t="str">
         <f t="shared" si="56"/>
@@ -17992,11 +17992,11 @@
         <v>849</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C640" s="4"/>
       <c r="D640" s="4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E640" s="11" t="str">
         <f t="shared" si="56"/>
@@ -18012,11 +18012,11 @@
         <v>849</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C641" s="4"/>
       <c r="D641" s="4" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E641" s="11" t="str">
         <f t="shared" si="56"/>
@@ -18032,11 +18032,11 @@
         <v>849</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C642" s="4"/>
       <c r="D642" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E642" s="11" t="str">
         <f t="shared" si="56"/>
@@ -18055,10 +18055,10 @@
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
       <c r="E643" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F643" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
@@ -18082,11 +18082,11 @@
         <v>849</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C645" s="4"/>
       <c r="D645" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E645" s="11" t="str">
         <f t="shared" ref="E645:E689" si="58">IF(ISBLANK(C645),"","&lt;!-- "&amp;C645&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D645&amp;"&lt;/item&gt;"</f>
@@ -18102,11 +18102,11 @@
         <v>849</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C646" s="4"/>
       <c r="D646" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E646" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18122,11 +18122,11 @@
         <v>849</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C647" s="4"/>
       <c r="D647" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E647" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18142,11 +18142,11 @@
         <v>849</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C648" s="4"/>
       <c r="D648" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E648" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18162,11 +18162,11 @@
         <v>849</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C649" s="4"/>
       <c r="D649" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E649" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18182,11 +18182,11 @@
         <v>849</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C650" s="4"/>
       <c r="D650" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E650" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18202,11 +18202,11 @@
         <v>849</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C651" s="4"/>
       <c r="D651" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E651" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18222,11 +18222,11 @@
         <v>849</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C652" s="4"/>
       <c r="D652" s="4" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E652" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18242,11 +18242,11 @@
         <v>849</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C653" s="4"/>
       <c r="D653" s="4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E653" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18262,11 +18262,11 @@
         <v>849</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C654" s="4"/>
       <c r="D654" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E654" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18282,11 +18282,11 @@
         <v>849</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C655" s="4"/>
       <c r="D655" s="4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E655" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18302,11 +18302,11 @@
         <v>849</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C656" s="4"/>
       <c r="D656" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E656" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18322,11 +18322,11 @@
         <v>849</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C657" s="4"/>
       <c r="D657" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E657" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18342,11 +18342,11 @@
         <v>849</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C658" s="4"/>
       <c r="D658" s="4" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E658" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18362,11 +18362,11 @@
         <v>849</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C659" s="4"/>
       <c r="D659" s="4" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E659" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18382,11 +18382,11 @@
         <v>849</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C660" s="4"/>
       <c r="D660" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E660" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18402,11 +18402,11 @@
         <v>849</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C661" s="4"/>
       <c r="D661" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E661" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18422,11 +18422,11 @@
         <v>849</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C662" s="4"/>
       <c r="D662" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E662" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18442,11 +18442,11 @@
         <v>849</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C663" s="4"/>
       <c r="D663" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E663" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18462,11 +18462,11 @@
         <v>849</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C664" s="4"/>
       <c r="D664" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E664" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18482,11 +18482,11 @@
         <v>849</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C665" s="4"/>
       <c r="D665" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E665" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18502,11 +18502,11 @@
         <v>849</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C666" s="4"/>
       <c r="D666" s="4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E666" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18522,11 +18522,11 @@
         <v>849</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C667" s="4"/>
       <c r="D667" s="4" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E667" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18542,11 +18542,11 @@
         <v>849</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C668" s="4"/>
       <c r="D668" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E668" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18562,11 +18562,11 @@
         <v>849</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C669" s="4"/>
       <c r="D669" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E669" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18582,11 +18582,11 @@
         <v>849</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C670" s="4"/>
       <c r="D670" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E670" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18602,11 +18602,11 @@
         <v>849</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C671" s="4"/>
       <c r="D671" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E671" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18622,11 +18622,11 @@
         <v>849</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C672" s="4"/>
       <c r="D672" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E672" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18642,11 +18642,11 @@
         <v>849</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C673" s="4"/>
       <c r="D673" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E673" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18662,11 +18662,11 @@
         <v>849</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C674" s="4"/>
       <c r="D674" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E674" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18682,11 +18682,11 @@
         <v>849</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C675" s="4"/>
       <c r="D675" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E675" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18702,11 +18702,11 @@
         <v>849</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C676" s="4"/>
       <c r="D676" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="E676" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18722,11 +18722,11 @@
         <v>849</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C677" s="4"/>
       <c r="D677" s="4" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E677" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18742,11 +18742,11 @@
         <v>849</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C678" s="4"/>
       <c r="D678" s="4" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E678" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18762,11 +18762,11 @@
         <v>849</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C679" s="4"/>
       <c r="D679" s="4" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E679" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18782,11 +18782,11 @@
         <v>849</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C680" s="4"/>
       <c r="D680" s="4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E680" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18802,11 +18802,11 @@
         <v>849</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C681" s="4"/>
       <c r="D681" s="4" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E681" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18822,11 +18822,11 @@
         <v>849</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C682" s="4"/>
       <c r="D682" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E682" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18842,11 +18842,11 @@
         <v>849</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C683" s="4"/>
       <c r="D683" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E683" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18862,11 +18862,11 @@
         <v>849</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C684" s="4"/>
       <c r="D684" s="4" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E684" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18882,11 +18882,11 @@
         <v>849</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C685" s="4"/>
       <c r="D685" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E685" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18902,11 +18902,11 @@
         <v>849</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C686" s="4"/>
       <c r="D686" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E686" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18922,11 +18922,11 @@
         <v>849</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C687" s="4"/>
       <c r="D687" s="4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E687" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18942,11 +18942,11 @@
         <v>849</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C688" s="4"/>
       <c r="D688" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E688" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18962,11 +18962,11 @@
         <v>849</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C689" s="4"/>
       <c r="D689" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E689" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18985,10 +18985,10 @@
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
       <c r="E690" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F690" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
   </sheetData>

--- a/Вектор развития ru-en 1.0 (53).xlsx
+++ b/Вектор развития ru-en 1.0 (53).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="615" windowWidth="20775" windowHeight="9600"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="Вектор_развития_ru_en" localSheetId="0">Лист1!$A$1:$G$689</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1431,9 +1431,6 @@
     <t>Ничего не найдено</t>
   </si>
   <si>
-    <t>Noting was found</t>
-  </si>
-  <si>
     <t>ask_update_linear_group</t>
   </si>
   <si>
@@ -4699,9 +4696,6 @@
     <t>%1$d from %2$d</t>
   </si>
   <si>
-    <t>events of the linear group come to the end %s.\n\nExtend for</t>
-  </si>
-  <si>
     <t>Contact us</t>
   </si>
   <si>
@@ -4976,6 +4970,12 @@
   </si>
   <si>
     <t>Meat mash</t>
+  </si>
+  <si>
+    <t>Nothing was found</t>
+  </si>
+  <si>
+    <t>Events of the linear group come to the end %s.\n\nExtend for</t>
   </si>
 </sst>
 </file>
@@ -5393,8 +5393,8 @@
   </sheetPr>
   <dimension ref="A1:G690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
-      <selection activeCell="D535" sqref="D535"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="D320" sqref="D320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5439,7 +5439,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="2" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>IF(ISBLANK(C3),"","&lt;!-- "&amp;C3&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A3&amp;"""&gt;"&amp;D3&amp;"&lt;/string&gt;"</f>
@@ -5476,7 +5476,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>IF(ISBLANK(C4),"","&lt;!-- "&amp;C4&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A4&amp;"""&gt;"&amp;D4&amp;"&lt;/string&gt;"</f>
@@ -5487,7 +5487,7 @@
         <v>&lt;!-- \n - символ переноса строки --&gt;NEWLINE&lt;string name="app_name_splash"&gt;Вектор\nразвития&lt;/string&gt;</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" ref="E5:E70" si="1">IF(ISBLANK(C5),"","&lt;!-- "&amp;C5&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A5&amp;"""&gt;"&amp;D5&amp;"&lt;/string&gt;"</f>
@@ -5510,7 +5510,7 @@
         <v>&lt;string name="drawer_item_calendar"&gt;Календарь&lt;/string&gt;</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5533,7 +5533,7 @@
         <v>&lt;string name="drawer_item_development_diary"&gt;Дневник развития&lt;/string&gt;</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5707,7 +5707,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5820,14 +5820,14 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>1593</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>1595</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5840,14 +5840,14 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>1594</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>1596</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5969,7 +5969,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E34" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E35" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E36" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E37" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E39" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E41" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E56" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="E57" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E68" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E72" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E74" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E75" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E76" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E77" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E78" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E79" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E80" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E81" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E82" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E83" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E84" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E85" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E86" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E87" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E88" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E89" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E90" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E91" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E92" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E93" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E94" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E95" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E96" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="E98" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E99" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E101" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E102" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E103" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7491,7 +7491,7 @@
         <v>242</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E104" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E105" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E106" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7553,7 +7553,7 @@
         <v>249</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E107" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7595,7 +7595,7 @@
         <v>255</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E109" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7637,7 +7637,7 @@
         <v>261</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="E111" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7659,7 +7659,7 @@
         <v>264</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E112" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7681,7 +7681,7 @@
         <v>267</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="E113" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7703,7 +7703,7 @@
         <v>270</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E114" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E115" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E116" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E117" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E125" s="4" t="str">
         <f t="shared" si="3"/>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="E126" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8043,7 +8043,7 @@
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E131" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E135" s="4" t="str">
         <f t="shared" ref="E135:E198" si="5">IF(ISBLANK(C135),"","&lt;!-- "&amp;C135&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A135&amp;"""&gt;"&amp;D135&amp;"&lt;/string&gt;"</f>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E139" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E151" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8625,7 +8625,7 @@
         <v>399</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E160" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8647,7 +8647,7 @@
         <v>399</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E161" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8703,11 +8703,11 @@
         <v>408</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E164" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8723,11 +8723,11 @@
         <v>409</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="E165" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8743,11 +8743,11 @@
         <v>410</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E166" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8763,11 +8763,11 @@
         <v>411</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="E167" s="4" t="str">
         <f t="shared" si="5"/>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="E174" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9089,7 +9089,7 @@
         <v>458</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E183" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9111,7 +9111,7 @@
         <v>461</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E184" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9133,7 +9133,7 @@
         <v>464</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E185" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9173,11 +9173,11 @@
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4" t="s">
-        <v>470</v>
+        <v>1650</v>
       </c>
       <c r="E187" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;string name="nothing_found"&gt;Noting was found&lt;/string&gt;</v>
+        <v>&lt;string name="nothing_found"&gt;Nothing was found&lt;/string&gt;</v>
       </c>
       <c r="F187" s="4" t="str">
         <f t="shared" si="4"/>
@@ -9186,14 +9186,14 @@
     </row>
     <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>472</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E188" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9206,14 +9206,14 @@
     </row>
     <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E189" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9226,14 +9226,14 @@
     </row>
     <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>478</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E190" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9246,14 +9246,14 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E191" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9266,14 +9266,14 @@
     </row>
     <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>484</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E192" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9286,14 +9286,14 @@
     </row>
     <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B193" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>487</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E193" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9306,14 +9306,14 @@
     </row>
     <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E194" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9326,14 +9326,14 @@
     </row>
     <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E195" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9346,14 +9346,14 @@
     </row>
     <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E196" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9366,14 +9366,14 @@
     </row>
     <row r="197" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B197" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>497</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E197" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9386,14 +9386,14 @@
     </row>
     <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>500</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E198" s="4" t="str">
         <f t="shared" si="5"/>
@@ -9406,14 +9406,14 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E199" s="4" t="str">
         <f t="shared" ref="E199:E262" si="7">IF(ISBLANK(C199),"","&lt;!-- "&amp;C199&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A199&amp;"""&gt;"&amp;D199&amp;"&lt;/string&gt;"</f>
@@ -9426,14 +9426,14 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>506</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E200" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9446,14 +9446,14 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>509</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E201" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9466,14 +9466,14 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>511</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E202" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9486,14 +9486,14 @@
     </row>
     <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>514</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E203" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9506,14 +9506,14 @@
     </row>
     <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>517</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E204" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9526,14 +9526,14 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>519</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E205" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9546,14 +9546,14 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>522</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E206" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9566,14 +9566,14 @@
     </row>
     <row r="207" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B207" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E207" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9586,14 +9586,14 @@
     </row>
     <row r="208" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E208" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9606,14 +9606,14 @@
     </row>
     <row r="209" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E209" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9626,14 +9626,14 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B210" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E210" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9646,14 +9646,14 @@
     </row>
     <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E211" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9666,14 +9666,14 @@
     </row>
     <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="E212" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9686,14 +9686,14 @@
     </row>
     <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>535</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E213" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9706,14 +9706,14 @@
     </row>
     <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E214" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9726,14 +9726,14 @@
     </row>
     <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>540</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E215" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9746,14 +9746,14 @@
     </row>
     <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E216" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9766,14 +9766,14 @@
     </row>
     <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>545</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E217" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9786,14 +9786,14 @@
     </row>
     <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B218" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>548</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E218" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9806,14 +9806,14 @@
     </row>
     <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>550</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>551</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E219" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9826,14 +9826,14 @@
     </row>
     <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B220" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E220" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9846,14 +9846,14 @@
     </row>
     <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>557</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E221" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9866,14 +9866,14 @@
     </row>
     <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B222" s="4" t="s">
         <v>559</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>560</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E222" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9886,14 +9886,14 @@
     </row>
     <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B223" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>563</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E223" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9906,14 +9906,14 @@
     </row>
     <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E224" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9926,14 +9926,14 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B225" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>569</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E225" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9946,14 +9946,14 @@
     </row>
     <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>572</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E226" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9966,14 +9966,14 @@
     </row>
     <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>575</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E227" s="4" t="str">
         <f t="shared" si="7"/>
@@ -9986,14 +9986,14 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>578</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E228" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10006,14 +10006,14 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>581</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E229" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10026,14 +10026,14 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>584</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E230" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10046,14 +10046,14 @@
     </row>
     <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B231" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>587</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E231" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10066,16 +10066,16 @@
     </row>
     <row r="232" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="C232" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="D232" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>592</v>
       </c>
       <c r="E232" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10088,16 +10088,16 @@
     </row>
     <row r="233" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C233" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="D233" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="D233" s="4" t="s">
-        <v>595</v>
       </c>
       <c r="E233" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10110,16 +10110,16 @@
     </row>
     <row r="234" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B234" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="C234" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="D234" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>599</v>
       </c>
       <c r="E234" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10132,16 +10132,16 @@
     </row>
     <row r="235" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B235" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="C235" s="4" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D235" s="4" t="s">
         <v>601</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>602</v>
       </c>
       <c r="E235" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10154,14 +10154,14 @@
     </row>
     <row r="236" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B236" s="4" t="s">
         <v>603</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>604</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E236" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10174,14 +10174,14 @@
     </row>
     <row r="237" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B237" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>607</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E237" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10194,14 +10194,14 @@
     </row>
     <row r="238" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B238" s="4" t="s">
         <v>609</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>610</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E238" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10214,14 +10214,14 @@
     </row>
     <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B239" s="4" t="s">
         <v>612</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>613</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E239" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10234,14 +10234,14 @@
     </row>
     <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B240" s="4" t="s">
         <v>615</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>616</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E240" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10254,14 +10254,14 @@
     </row>
     <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B241" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E241" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10274,14 +10274,14 @@
     </row>
     <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B242" s="4" t="s">
         <v>621</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>622</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E242" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10294,14 +10294,14 @@
     </row>
     <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B243" s="4" t="s">
         <v>624</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>625</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E243" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10314,14 +10314,14 @@
     </row>
     <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>627</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>628</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E244" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10334,14 +10334,14 @@
     </row>
     <row r="245" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>631</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E245" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10354,14 +10354,14 @@
     </row>
     <row r="246" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>633</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E246" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10374,14 +10374,14 @@
     </row>
     <row r="247" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>635</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E247" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10394,14 +10394,14 @@
     </row>
     <row r="248" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>637</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>638</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E248" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10414,14 +10414,14 @@
     </row>
     <row r="249" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E249" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10434,14 +10434,14 @@
     </row>
     <row r="250" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>643</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>644</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E250" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10454,14 +10454,14 @@
     </row>
     <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>646</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>647</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E251" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10474,14 +10474,14 @@
     </row>
     <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B252" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>649</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E252" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10494,14 +10494,14 @@
     </row>
     <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B253" s="4" t="s">
         <v>651</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>652</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E253" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10514,14 +10514,14 @@
     </row>
     <row r="254" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>653</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>654</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E254" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10534,14 +10534,14 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>655</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>656</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E255" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10554,14 +10554,14 @@
     </row>
     <row r="256" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>659</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E256" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10574,14 +10574,14 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B257" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>662</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E257" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10594,14 +10594,14 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B258" s="4" t="s">
         <v>664</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>665</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E258" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10614,14 +10614,14 @@
     </row>
     <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B259" s="4" t="s">
         <v>667</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>668</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E259" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10634,16 +10634,16 @@
     </row>
     <row r="260" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="C260" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="C260" s="4" t="s">
-        <v>672</v>
-      </c>
       <c r="D260" s="4" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E260" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10656,14 +10656,14 @@
     </row>
     <row r="261" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B261" s="4" t="s">
         <v>673</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>674</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E261" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10676,14 +10676,14 @@
     </row>
     <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B262" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>677</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E262" s="4" t="str">
         <f t="shared" si="7"/>
@@ -10696,14 +10696,14 @@
     </row>
     <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B263" s="4" t="s">
         <v>679</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>680</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E263" s="4" t="str">
         <f t="shared" ref="E263:E322" si="9">IF(ISBLANK(C263),"","&lt;!-- "&amp;C263&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A263&amp;"""&gt;"&amp;D263&amp;"&lt;/string&gt;"</f>
@@ -10716,14 +10716,14 @@
     </row>
     <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B264" s="4" t="s">
         <v>682</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>683</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E264" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10736,14 +10736,14 @@
     </row>
     <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B265" s="4" t="s">
         <v>685</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>686</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E265" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10756,14 +10756,14 @@
     </row>
     <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B266" s="4" t="s">
         <v>688</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>689</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E266" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10776,14 +10776,14 @@
     </row>
     <row r="267" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>690</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>691</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E267" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10796,14 +10796,14 @@
     </row>
     <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B268" s="4" t="s">
         <v>693</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>694</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E268" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10816,14 +10816,14 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B269" s="4" t="s">
         <v>696</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>697</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E269" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10836,14 +10836,14 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B270" s="4" t="s">
         <v>699</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>700</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E270" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10856,14 +10856,14 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B271" s="4" t="s">
         <v>702</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>703</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E271" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10876,14 +10876,14 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B272" s="4" t="s">
         <v>704</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>705</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E272" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10896,14 +10896,14 @@
     </row>
     <row r="273" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B273" s="4" t="s">
         <v>706</v>
-      </c>
-      <c r="B273" s="4" t="s">
-        <v>707</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E273" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10916,14 +10916,14 @@
     </row>
     <row r="274" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B274" s="4" t="s">
         <v>709</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>710</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E274" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10936,14 +10936,14 @@
     </row>
     <row r="275" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B275" s="4" t="s">
         <v>712</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>713</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E275" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10956,14 +10956,14 @@
     </row>
     <row r="276" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B276" s="4" t="s">
         <v>714</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>715</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E276" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10976,14 +10976,14 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B277" s="4" t="s">
         <v>716</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>717</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E277" s="4" t="str">
         <f t="shared" si="9"/>
@@ -10996,14 +10996,14 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="B278" s="4" t="s">
         <v>719</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>720</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E278" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11016,14 +11016,14 @@
     </row>
     <row r="279" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B279" s="4" t="s">
         <v>722</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>723</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E279" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11036,14 +11036,14 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B280" s="4" t="s">
         <v>725</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>726</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E280" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11056,14 +11056,14 @@
     </row>
     <row r="281" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B281" s="4" t="s">
         <v>728</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>729</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E281" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11076,14 +11076,14 @@
     </row>
     <row r="282" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>731</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>732</v>
       </c>
       <c r="C282" s="4"/>
       <c r="D282" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E282" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11096,14 +11096,14 @@
     </row>
     <row r="283" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B283" s="4" t="s">
         <v>734</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>735</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E283" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11116,14 +11116,14 @@
     </row>
     <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B284" s="4" t="s">
         <v>736</v>
-      </c>
-      <c r="B284" s="4" t="s">
-        <v>737</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E284" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11136,14 +11136,14 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="B285" s="4" t="s">
         <v>739</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>740</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E285" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11156,14 +11156,14 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B286" s="4" t="s">
         <v>742</v>
-      </c>
-      <c r="B286" s="4" t="s">
-        <v>743</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E286" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11176,14 +11176,14 @@
     </row>
     <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B287" s="4" t="s">
         <v>744</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>745</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E287" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11196,14 +11196,14 @@
     </row>
     <row r="288" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="B288" s="4" t="s">
         <v>746</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>747</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E288" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11216,14 +11216,14 @@
     </row>
     <row r="289" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="B289" s="4" t="s">
         <v>749</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>750</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E289" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11236,14 +11236,14 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B290" s="4" t="s">
         <v>752</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>753</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E290" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11256,14 +11256,14 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E291" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11276,14 +11276,14 @@
     </row>
     <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B292" s="4" t="s">
         <v>757</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>758</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E292" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11296,14 +11296,14 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B293" s="4" t="s">
         <v>760</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>761</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E293" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11316,14 +11316,14 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B294" s="4" t="s">
         <v>763</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>764</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E294" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11336,14 +11336,14 @@
     </row>
     <row r="295" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B295" s="4" t="s">
         <v>766</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>767</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E295" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11356,14 +11356,14 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B296" s="4" t="s">
         <v>769</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>770</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E296" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11376,14 +11376,14 @@
     </row>
     <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B297" s="4" t="s">
         <v>772</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>773</v>
       </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E297" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11396,14 +11396,14 @@
     </row>
     <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B298" s="4" t="s">
         <v>775</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>776</v>
       </c>
       <c r="C298" s="4"/>
       <c r="D298" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E298" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11416,14 +11416,14 @@
     </row>
     <row r="299" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="B299" s="4" t="s">
         <v>778</v>
-      </c>
-      <c r="B299" s="4" t="s">
-        <v>779</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E299" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11436,14 +11436,14 @@
     </row>
     <row r="300" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B300" s="4" t="s">
         <v>781</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>782</v>
       </c>
       <c r="C300" s="4"/>
       <c r="D300" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E300" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11456,14 +11456,14 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="B301" s="4" t="s">
         <v>784</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>785</v>
       </c>
       <c r="C301" s="4"/>
       <c r="D301" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E301" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11476,14 +11476,14 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B302" s="4" t="s">
         <v>787</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>788</v>
       </c>
       <c r="C302" s="4"/>
       <c r="D302" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E302" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11496,14 +11496,14 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B303" s="4" t="s">
         <v>790</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>791</v>
       </c>
       <c r="C303" s="4"/>
       <c r="D303" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E303" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11516,14 +11516,14 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B304" s="4" t="s">
         <v>793</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>794</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E304" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11536,14 +11536,14 @@
     </row>
     <row r="305" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B305" s="4" t="s">
         <v>796</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>797</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E305" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11556,14 +11556,14 @@
     </row>
     <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="B306" s="4" t="s">
         <v>799</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>800</v>
       </c>
       <c r="C306" s="4"/>
       <c r="D306" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E306" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11576,14 +11576,14 @@
     </row>
     <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B307" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>803</v>
       </c>
       <c r="C307" s="4"/>
       <c r="D307" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E307" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11596,14 +11596,14 @@
     </row>
     <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B308" s="4" t="s">
         <v>805</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>806</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E308" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11616,14 +11616,14 @@
     </row>
     <row r="309" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B309" s="4" t="s">
         <v>808</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>809</v>
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="E309" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11636,14 +11636,14 @@
     </row>
     <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B310" s="4" t="s">
         <v>810</v>
-      </c>
-      <c r="B310" s="4" t="s">
-        <v>811</v>
       </c>
       <c r="C310" s="4"/>
       <c r="D310" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E310" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11656,16 +11656,16 @@
     </row>
     <row r="311" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B311" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="C311" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="C311" s="4" t="s">
-        <v>815</v>
-      </c>
       <c r="D311" s="4" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E311" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11678,14 +11678,14 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B312" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="B312" s="4" t="s">
-        <v>817</v>
       </c>
       <c r="C312" s="4"/>
       <c r="D312" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E312" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11698,14 +11698,14 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B313" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="B313" s="4" t="s">
-        <v>820</v>
       </c>
       <c r="C313" s="4"/>
       <c r="D313" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E313" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11718,14 +11718,14 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B314" s="4" t="s">
         <v>822</v>
-      </c>
-      <c r="B314" s="4" t="s">
-        <v>823</v>
       </c>
       <c r="C314" s="4"/>
       <c r="D314" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E314" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11738,14 +11738,14 @@
     </row>
     <row r="315" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B315" s="4" t="s">
         <v>825</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>826</v>
       </c>
       <c r="C315" s="4"/>
       <c r="D315" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E315" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11758,14 +11758,14 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B316" s="4" t="s">
         <v>828</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>829</v>
       </c>
       <c r="C316" s="4"/>
       <c r="D316" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E316" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11778,14 +11778,14 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B317" s="4" t="s">
         <v>831</v>
-      </c>
-      <c r="B317" s="4" t="s">
-        <v>832</v>
       </c>
       <c r="C317" s="4"/>
       <c r="D317" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E317" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11798,14 +11798,14 @@
     </row>
     <row r="318" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B318" s="4" t="s">
         <v>834</v>
-      </c>
-      <c r="B318" s="4" t="s">
-        <v>835</v>
       </c>
       <c r="C318" s="4"/>
       <c r="D318" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E318" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11818,20 +11818,20 @@
     </row>
     <row r="319" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B319" s="4" t="s">
         <v>837</v>
-      </c>
-      <c r="B319" s="4" t="s">
-        <v>838</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>1559</v>
+        <v>1651</v>
       </c>
       <c r="E319" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;!-- \n - символ переноса строки --&gt;NEWLINE&lt;string name="linear_group_finished_dialog_description"&gt;events of the linear group come to the end %s.\n\nExtend for&lt;/string&gt;</v>
+        <v>&lt;!-- \n - символ переноса строки --&gt;NEWLINE&lt;string name="linear_group_finished_dialog_description"&gt;Events of the linear group come to the end %s.\n\nExtend for&lt;/string&gt;</v>
       </c>
       <c r="F319" s="4" t="str">
         <f t="shared" si="8"/>
@@ -11840,14 +11840,14 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="B320" s="4" t="s">
         <v>839</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>840</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E320" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11860,16 +11860,16 @@
     </row>
     <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B321" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="B321" s="4" t="s">
+      <c r="C321" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="C321" s="4" t="s">
-        <v>843</v>
-      </c>
       <c r="D321" s="4" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="E321" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11882,16 +11882,16 @@
     </row>
     <row r="322" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B322" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="B322" s="4" t="s">
+      <c r="C322" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="C322" s="4" t="s">
-        <v>846</v>
-      </c>
       <c r="D322" s="4" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="E322" s="4" t="str">
         <f t="shared" si="9"/>
@@ -11904,7 +11904,7 @@
     </row>
     <row r="323" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -11914,7 +11914,7 @@
     </row>
     <row r="324" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -11930,14 +11930,14 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B325" s="4" t="s">
         <v>849</v>
-      </c>
-      <c r="B325" s="4" t="s">
-        <v>850</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E325" s="4" t="str">
         <f>IF(ISBLANK(C325),"","&lt;!-- "&amp;C325&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D325&amp;"&lt;/item&gt;"</f>
@@ -11950,14 +11950,14 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C326" s="4"/>
       <c r="D326" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E326" s="4" t="str">
         <f t="shared" ref="E326:E350" si="10">IF(ISBLANK(C326),"","&lt;!-- "&amp;C326&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D326&amp;"&lt;/item&gt;"</f>
@@ -11970,14 +11970,14 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C327" s="4"/>
       <c r="D327" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E327" s="4" t="str">
         <f t="shared" si="10"/>
@@ -11990,14 +11990,14 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C328" s="4"/>
       <c r="D328" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E328" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12010,14 +12010,14 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C329" s="4"/>
       <c r="D329" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E329" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12030,14 +12030,14 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E330" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12050,14 +12050,14 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E331" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12070,14 +12070,14 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E332" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12090,14 +12090,14 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C333" s="4"/>
       <c r="D333" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E333" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12110,14 +12110,14 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E334" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12130,14 +12130,14 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E335" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12150,14 +12150,14 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E336" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12170,21 +12170,21 @@
     </row>
     <row r="337" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -12200,14 +12200,14 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C339" s="4"/>
       <c r="D339" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E339" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12220,14 +12220,14 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C340" s="4"/>
       <c r="D340" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E340" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12240,14 +12240,14 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C341" s="4"/>
       <c r="D341" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E341" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12260,14 +12260,14 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C342" s="4"/>
       <c r="D342" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E342" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12280,14 +12280,14 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E343" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12300,14 +12300,14 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E344" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12320,14 +12320,14 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E345" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12340,14 +12340,14 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E346" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12360,14 +12360,14 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E347" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12380,14 +12380,14 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E348" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12400,14 +12400,14 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E349" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12420,14 +12420,14 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E350" s="4" t="str">
         <f t="shared" si="10"/>
@@ -12440,21 +12440,21 @@
     </row>
     <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F351" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -12464,11 +12464,11 @@
     </row>
     <row r="353" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B353" s="4"/>
       <c r="C353" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D353" s="4"/>
       <c r="E353" s="4" t="str">
@@ -12482,16 +12482,16 @@
     </row>
     <row r="354" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="B354" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="B354" s="4" t="s">
+      <c r="C354" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="C354" s="4" t="s">
-        <v>892</v>
-      </c>
       <c r="D354" s="4" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E354" s="4" t="str">
         <f>IF(ISBLANK(C354),"","&lt;!-- "&amp;C354&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A354&amp;"""&gt;"&amp;D354&amp;"&lt;/item&gt;"</f>
@@ -12504,16 +12504,16 @@
     </row>
     <row r="355" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="B355" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="B355" s="4" t="s">
+      <c r="C355" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="C355" s="4" t="s">
-        <v>895</v>
-      </c>
       <c r="D355" s="4" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="E355" s="4" t="str">
         <f t="shared" ref="E355:E358" si="13">IF(ISBLANK(C355),"","&lt;!-- "&amp;C355&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A355&amp;"""&gt;"&amp;D355&amp;"&lt;/item&gt;"</f>
@@ -12529,13 +12529,13 @@
         <v>130</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="E356" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12548,16 +12548,16 @@
     </row>
     <row r="357" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C357" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="B357" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>898</v>
-      </c>
       <c r="D357" s="4" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="E357" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12570,16 +12570,16 @@
     </row>
     <row r="358" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C358" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="B358" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="C358" s="4" t="s">
-        <v>900</v>
-      </c>
       <c r="D358" s="4" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="E358" s="4" t="str">
         <f t="shared" si="13"/>
@@ -12592,25 +12592,25 @@
     </row>
     <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="F359" s="4" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B360" s="4"/>
       <c r="C360" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D360" s="4"/>
       <c r="E360" s="4" t="str">
@@ -12624,16 +12624,16 @@
     </row>
     <row r="361" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B361" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C361" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="C361" s="4" t="s">
-        <v>903</v>
-      </c>
       <c r="D361" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E361" s="4" t="str">
         <f t="shared" ref="E361:E365" si="15">IF(ISBLANK(C361),"","&lt;!-- "&amp;C361&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A361&amp;"""&gt;"&amp;D361&amp;"&lt;/item&gt;"</f>
@@ -12646,16 +12646,16 @@
     </row>
     <row r="362" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B362" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C362" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="C362" s="4" t="s">
-        <v>905</v>
-      </c>
       <c r="D362" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="E362" s="4" t="str">
         <f t="shared" si="15"/>
@@ -12671,13 +12671,13 @@
         <v>130</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="E363" s="4" t="str">
         <f t="shared" si="15"/>
@@ -12690,16 +12690,16 @@
     </row>
     <row r="364" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B364" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C364" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="C364" s="4" t="s">
-        <v>907</v>
-      </c>
       <c r="D364" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="E364" s="4" t="str">
         <f t="shared" si="15"/>
@@ -12712,16 +12712,16 @@
     </row>
     <row r="365" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="E365" s="4" t="str">
         <f t="shared" si="15"/>
@@ -12734,25 +12734,25 @@
     </row>
     <row r="366" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="F366" s="4" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B367" s="4"/>
       <c r="C367" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D367" s="4"/>
       <c r="E367" s="4" t="str">
@@ -12766,16 +12766,16 @@
     </row>
     <row r="368" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B368" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="C368" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="C368" s="4" t="s">
-        <v>911</v>
-      </c>
       <c r="D368" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="E368" s="4" t="str">
         <f t="shared" ref="E368:E372" si="17">IF(ISBLANK(C368),"","&lt;!-- "&amp;C368&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A368&amp;"""&gt;"&amp;D368&amp;"&lt;/item&gt;"</f>
@@ -12788,16 +12788,16 @@
     </row>
     <row r="369" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B369" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="C369" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="C369" s="4" t="s">
-        <v>913</v>
-      </c>
       <c r="D369" s="4" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E369" s="4" t="str">
         <f t="shared" si="17"/>
@@ -12813,13 +12813,13 @@
         <v>130</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E370" s="4" t="str">
         <f t="shared" si="17"/>
@@ -12832,16 +12832,16 @@
     </row>
     <row r="371" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B371" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="C371" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="C371" s="4" t="s">
-        <v>915</v>
-      </c>
       <c r="D371" s="4" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E371" s="4" t="str">
         <f t="shared" si="17"/>
@@ -12854,16 +12854,16 @@
     </row>
     <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E372" s="4" t="str">
         <f t="shared" si="17"/>
@@ -12876,21 +12876,21 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="F373" s="4" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
@@ -12900,14 +12900,14 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="B375" s="4" t="s">
         <v>918</v>
-      </c>
-      <c r="B375" s="4" t="s">
-        <v>919</v>
       </c>
       <c r="C375" s="4"/>
       <c r="D375" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E375" s="11" t="str">
         <f t="shared" ref="E375:E378" si="19">IF(ISBLANK(C375),"","&lt;!-- "&amp;C375&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A375&amp;"""&gt;"&amp;D375&amp;"&lt;/string&gt;"</f>
@@ -12920,14 +12920,14 @@
     </row>
     <row r="376" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="B376" s="4" t="s">
         <v>920</v>
-      </c>
-      <c r="B376" s="4" t="s">
-        <v>921</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E376" s="11" t="str">
         <f t="shared" si="19"/>
@@ -12940,14 +12940,14 @@
     </row>
     <row r="377" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B377" s="4" t="s">
         <v>923</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>924</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="4" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="E377" s="11" t="str">
         <f t="shared" si="19"/>
@@ -12960,14 +12960,14 @@
     </row>
     <row r="378" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B378" s="4" t="s">
         <v>925</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>926</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="4" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="E378" s="11" t="str">
         <f t="shared" si="19"/>
@@ -12980,7 +12980,7 @@
     </row>
     <row r="379" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -12996,14 +12996,14 @@
     </row>
     <row r="380" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C380" s="4"/>
       <c r="D380" s="4" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="E380" s="11" t="str">
         <f t="shared" ref="E380:E381" si="21">IF(ISBLANK(C380),"","&lt;!-- "&amp;C380&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D380&amp;"&lt;/item&gt;"</f>
@@ -13016,14 +13016,14 @@
     </row>
     <row r="381" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C381" s="4"/>
       <c r="D381" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E381" s="11" t="str">
         <f t="shared" si="21"/>
@@ -13036,21 +13036,21 @@
     </row>
     <row r="382" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F382" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -13066,14 +13066,14 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C384" s="4"/>
       <c r="D384" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E384" s="11" t="str">
         <f t="shared" ref="E384:E390" si="22">IF(ISBLANK(C384),"","&lt;!-- "&amp;C384&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D384&amp;"&lt;/item&gt;"</f>
@@ -13086,14 +13086,14 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E385" s="11" t="str">
         <f t="shared" si="22"/>
@@ -13106,14 +13106,14 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C386" s="4"/>
       <c r="D386" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E386" s="11" t="str">
         <f t="shared" si="22"/>
@@ -13126,14 +13126,14 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C387" s="4"/>
       <c r="D387" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E387" s="11" t="str">
         <f t="shared" si="22"/>
@@ -13146,14 +13146,14 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C388" s="4"/>
       <c r="D388" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E388" s="11" t="str">
         <f t="shared" si="22"/>
@@ -13166,14 +13166,14 @@
     </row>
     <row r="389" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C389" s="4"/>
       <c r="D389" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E389" s="11" t="str">
         <f t="shared" si="22"/>
@@ -13186,14 +13186,14 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C390" s="4"/>
       <c r="D390" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E390" s="11" t="str">
         <f t="shared" si="22"/>
@@ -13206,21 +13206,21 @@
     </row>
     <row r="391" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F391" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -13230,14 +13230,14 @@
     </row>
     <row r="393" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="B393" s="4" t="s">
         <v>947</v>
-      </c>
-      <c r="B393" s="4" t="s">
-        <v>948</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="4" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E393" s="4" t="str">
         <f t="shared" ref="E393:E396" si="24">IF(ISBLANK(C393),"","&lt;!-- "&amp;C393&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A393&amp;"""&gt;"&amp;D393&amp;"&lt;/string&gt;"</f>
@@ -13250,14 +13250,14 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="B394" s="4" t="s">
         <v>949</v>
-      </c>
-      <c r="B394" s="4" t="s">
-        <v>950</v>
       </c>
       <c r="C394" s="4"/>
       <c r="D394" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E394" s="4" t="str">
         <f t="shared" si="24"/>
@@ -13270,14 +13270,14 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="B395" s="4" t="s">
         <v>952</v>
-      </c>
-      <c r="B395" s="4" t="s">
-        <v>953</v>
       </c>
       <c r="C395" s="4"/>
       <c r="D395" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E395" s="4" t="str">
         <f t="shared" si="24"/>
@@ -13290,14 +13290,14 @@
     </row>
     <row r="396" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="B396" s="4" t="s">
         <v>955</v>
-      </c>
-      <c r="B396" s="4" t="s">
-        <v>956</v>
       </c>
       <c r="C396" s="4"/>
       <c r="D396" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E396" s="4" t="str">
         <f t="shared" si="24"/>
@@ -13310,7 +13310,7 @@
     </row>
     <row r="397" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -13326,14 +13326,14 @@
     </row>
     <row r="398" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="4" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="E398" s="4" t="str">
         <f t="shared" ref="E398:E404" si="25">IF(ISBLANK(C398),"","&lt;!-- "&amp;C398&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D398&amp;"&lt;/item&gt;"</f>
@@ -13346,14 +13346,14 @@
     </row>
     <row r="399" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C399" s="4"/>
       <c r="D399" s="4" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="E399" s="4" t="str">
         <f t="shared" si="25"/>
@@ -13366,14 +13366,14 @@
     </row>
     <row r="400" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C400" s="4"/>
       <c r="D400" s="4" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E400" s="4" t="str">
         <f t="shared" si="25"/>
@@ -13386,14 +13386,14 @@
     </row>
     <row r="401" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="4" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="E401" s="4" t="str">
         <f t="shared" si="25"/>
@@ -13406,14 +13406,14 @@
     </row>
     <row r="402" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C402" s="4"/>
       <c r="D402" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E402" s="4" t="str">
         <f t="shared" si="25"/>
@@ -13426,14 +13426,14 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C403" s="4"/>
       <c r="D403" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E403" s="4" t="str">
         <f t="shared" si="25"/>
@@ -13446,14 +13446,14 @@
     </row>
     <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C404" s="4"/>
       <c r="D404" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E404" s="4" t="str">
         <f t="shared" si="25"/>
@@ -13466,21 +13466,21 @@
     </row>
     <row r="405" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F405" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -13496,14 +13496,14 @@
     </row>
     <row r="407" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C407" s="4"/>
       <c r="D407" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E407" s="4" t="str">
         <f t="shared" ref="E407:E413" si="27">IF(ISBLANK(C407),"","&lt;!-- "&amp;C407&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D407&amp;"&lt;/item&gt;"</f>
@@ -13516,14 +13516,14 @@
     </row>
     <row r="408" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C408" s="4"/>
       <c r="D408" s="4" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="E408" s="4" t="str">
         <f t="shared" si="27"/>
@@ -13536,14 +13536,14 @@
     </row>
     <row r="409" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="C409" s="4"/>
       <c r="D409" s="4" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="E409" s="4" t="str">
         <f t="shared" si="27"/>
@@ -13556,14 +13556,14 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C410" s="4"/>
       <c r="D410" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E410" s="4" t="str">
         <f t="shared" si="27"/>
@@ -13576,14 +13576,14 @@
     </row>
     <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C411" s="4"/>
       <c r="D411" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E411" s="4" t="str">
         <f t="shared" si="27"/>
@@ -13596,14 +13596,14 @@
     </row>
     <row r="412" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E412" s="4" t="str">
         <f t="shared" si="27"/>
@@ -13616,14 +13616,14 @@
     </row>
     <row r="413" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C413" s="4"/>
       <c r="D413" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E413" s="4" t="str">
         <f t="shared" si="27"/>
@@ -13636,21 +13636,21 @@
     </row>
     <row r="414" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F414" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -13666,14 +13666,14 @@
     </row>
     <row r="416" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C416" s="4"/>
       <c r="D416" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E416" s="4" t="str">
         <f t="shared" ref="E416:E422" si="29">IF(ISBLANK(C416),"","&lt;!-- "&amp;C416&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D416&amp;"&lt;/item&gt;"</f>
@@ -13686,14 +13686,14 @@
     </row>
     <row r="417" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C417" s="4"/>
       <c r="D417" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E417" s="4" t="str">
         <f t="shared" si="29"/>
@@ -13706,14 +13706,14 @@
     </row>
     <row r="418" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C418" s="4"/>
       <c r="D418" s="4" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="E418" s="4" t="str">
         <f t="shared" si="29"/>
@@ -13726,14 +13726,14 @@
     </row>
     <row r="419" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C419" s="4"/>
       <c r="D419" s="4" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="E419" s="4" t="str">
         <f t="shared" si="29"/>
@@ -13746,14 +13746,14 @@
     </row>
     <row r="420" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="C420" s="4"/>
       <c r="D420" s="4" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="E420" s="4" t="str">
         <f t="shared" si="29"/>
@@ -13766,14 +13766,14 @@
     </row>
     <row r="421" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C421" s="4"/>
       <c r="D421" s="4" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="E421" s="4" t="str">
         <f t="shared" si="29"/>
@@ -13786,14 +13786,14 @@
     </row>
     <row r="422" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E422" s="4" t="str">
         <f t="shared" si="29"/>
@@ -13806,21 +13806,21 @@
     </row>
     <row r="423" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F423" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -13830,14 +13830,14 @@
     </row>
     <row r="425" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B425" s="4" t="s">
         <v>990</v>
-      </c>
-      <c r="B425" s="4" t="s">
-        <v>991</v>
       </c>
       <c r="C425" s="4"/>
       <c r="D425" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E425" s="4" t="str">
         <f t="shared" ref="E425:E428" si="31">IF(ISBLANK(C425),"","&lt;!-- "&amp;C425&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A425&amp;"""&gt;"&amp;D425&amp;"&lt;/string&gt;"</f>
@@ -13850,14 +13850,14 @@
     </row>
     <row r="426" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B426" s="4" t="s">
         <v>993</v>
-      </c>
-      <c r="B426" s="4" t="s">
-        <v>994</v>
       </c>
       <c r="C426" s="4"/>
       <c r="D426" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E426" s="4" t="str">
         <f t="shared" si="31"/>
@@ -13870,14 +13870,14 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B427" s="4" t="s">
         <v>996</v>
-      </c>
-      <c r="B427" s="4" t="s">
-        <v>997</v>
       </c>
       <c r="C427" s="4"/>
       <c r="D427" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E427" s="4" t="str">
         <f t="shared" si="31"/>
@@ -13890,14 +13890,14 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="B428" s="4" t="s">
         <v>999</v>
-      </c>
-      <c r="B428" s="4" t="s">
-        <v>1000</v>
       </c>
       <c r="C428" s="4"/>
       <c r="D428" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E428" s="4" t="str">
         <f t="shared" si="31"/>
@@ -13910,7 +13910,7 @@
     </row>
     <row r="429" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -13926,14 +13926,14 @@
     </row>
     <row r="430" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C430" s="4"/>
       <c r="D430" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E430" s="4" t="str">
         <f t="shared" ref="E430:E436" si="32">IF(ISBLANK(C430),"","&lt;!-- "&amp;C430&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D430&amp;"&lt;/item&gt;"</f>
@@ -13946,14 +13946,14 @@
     </row>
     <row r="431" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C431" s="4"/>
       <c r="D431" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E431" s="4" t="str">
         <f t="shared" si="32"/>
@@ -13966,14 +13966,14 @@
     </row>
     <row r="432" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C432" s="4"/>
       <c r="D432" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E432" s="4" t="str">
         <f t="shared" si="32"/>
@@ -13986,14 +13986,14 @@
     </row>
     <row r="433" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C433" s="4"/>
       <c r="D433" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E433" s="4" t="str">
         <f t="shared" si="32"/>
@@ -14006,14 +14006,14 @@
     </row>
     <row r="434" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C434" s="4"/>
       <c r="D434" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E434" s="4" t="str">
         <f t="shared" si="32"/>
@@ -14026,14 +14026,14 @@
     </row>
     <row r="435" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C435" s="4"/>
       <c r="D435" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E435" s="4" t="str">
         <f t="shared" si="32"/>
@@ -14046,14 +14046,14 @@
     </row>
     <row r="436" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C436" s="4"/>
       <c r="D436" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E436" s="4" t="str">
         <f t="shared" si="32"/>
@@ -14066,21 +14066,21 @@
     </row>
     <row r="437" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F437" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -14096,14 +14096,14 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C439" s="4"/>
       <c r="D439" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E439" s="4" t="str">
         <f t="shared" ref="E439:E445" si="34">IF(ISBLANK(C439),"","&lt;!-- "&amp;C439&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D439&amp;"&lt;/item&gt;"</f>
@@ -14116,14 +14116,14 @@
     </row>
     <row r="440" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E440" s="4" t="str">
         <f t="shared" si="34"/>
@@ -14136,14 +14136,14 @@
     </row>
     <row r="441" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C441" s="4"/>
       <c r="D441" s="4" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="E441" s="4" t="str">
         <f t="shared" si="34"/>
@@ -14156,14 +14156,14 @@
     </row>
     <row r="442" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E442" s="4" t="str">
         <f t="shared" si="34"/>
@@ -14176,14 +14176,14 @@
     </row>
     <row r="443" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C443" s="4"/>
       <c r="D443" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E443" s="4" t="str">
         <f t="shared" si="34"/>
@@ -14196,14 +14196,14 @@
     </row>
     <row r="444" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C444" s="4"/>
       <c r="D444" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E444" s="4" t="str">
         <f t="shared" si="34"/>
@@ -14216,14 +14216,14 @@
     </row>
     <row r="445" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C445" s="4"/>
       <c r="D445" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E445" s="4" t="str">
         <f t="shared" si="34"/>
@@ -14236,21 +14236,21 @@
     </row>
     <row r="446" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F446" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -14266,14 +14266,14 @@
     </row>
     <row r="448" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C448" s="4"/>
       <c r="D448" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E448" s="4" t="str">
         <f t="shared" ref="E448:E454" si="36">IF(ISBLANK(C448),"","&lt;!-- "&amp;C448&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D448&amp;"&lt;/item&gt;"</f>
@@ -14286,14 +14286,14 @@
     </row>
     <row r="449" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E449" s="4" t="str">
         <f t="shared" si="36"/>
@@ -14306,14 +14306,14 @@
     </row>
     <row r="450" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E450" s="4" t="str">
         <f t="shared" si="36"/>
@@ -14326,14 +14326,14 @@
     </row>
     <row r="451" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C451" s="4"/>
       <c r="D451" s="4" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="E451" s="4" t="str">
         <f t="shared" si="36"/>
@@ -14347,14 +14347,14 @@
     </row>
     <row r="452" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C452" s="4"/>
       <c r="D452" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E452" s="4" t="str">
         <f t="shared" si="36"/>
@@ -14367,14 +14367,14 @@
     </row>
     <row r="453" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C453" s="4"/>
       <c r="D453" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E453" s="4" t="str">
         <f t="shared" si="36"/>
@@ -14387,14 +14387,14 @@
     </row>
     <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C454" s="4"/>
       <c r="D454" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E454" s="4" t="str">
         <f t="shared" si="36"/>
@@ -14407,21 +14407,21 @@
     </row>
     <row r="455" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F455" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
@@ -14431,14 +14431,14 @@
     </row>
     <row r="457" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B457" s="4" t="s">
         <v>1045</v>
-      </c>
-      <c r="B457" s="4" t="s">
-        <v>1046</v>
       </c>
       <c r="C457" s="4"/>
       <c r="D457" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E457" s="4" t="str">
         <f t="shared" ref="E457:E461" si="38">IF(ISBLANK(C457),"","&lt;!-- "&amp;C457&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A457&amp;"""&gt;"&amp;D457&amp;"&lt;/string&gt;"</f>
@@ -14451,14 +14451,14 @@
     </row>
     <row r="458" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="C458" s="4"/>
       <c r="D458" s="4" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="E458" s="4" t="str">
         <f t="shared" si="38"/>
@@ -14471,14 +14471,14 @@
     </row>
     <row r="459" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B459" s="4" t="s">
         <v>1049</v>
-      </c>
-      <c r="B459" s="4" t="s">
-        <v>1050</v>
       </c>
       <c r="C459" s="4"/>
       <c r="D459" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E459" s="4" t="str">
         <f t="shared" si="38"/>
@@ -14491,14 +14491,14 @@
     </row>
     <row r="460" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B460" s="4" t="s">
         <v>1052</v>
-      </c>
-      <c r="B460" s="4" t="s">
-        <v>1053</v>
       </c>
       <c r="C460" s="4"/>
       <c r="D460" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E460" s="4" t="str">
         <f t="shared" si="38"/>
@@ -14511,14 +14511,14 @@
     </row>
     <row r="461" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B461" s="4" t="s">
         <v>1055</v>
-      </c>
-      <c r="B461" s="4" t="s">
-        <v>1056</v>
       </c>
       <c r="C461" s="4"/>
       <c r="D461" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E461" s="4" t="str">
         <f t="shared" si="38"/>
@@ -14531,7 +14531,7 @@
     </row>
     <row r="462" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -14547,14 +14547,14 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C463" s="4"/>
       <c r="D463" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E463" s="4" t="str">
         <f t="shared" ref="E463:E464" si="40">IF(ISBLANK(C463),"","&lt;!-- "&amp;C463&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D463&amp;"&lt;/item&gt;"</f>
@@ -14567,14 +14567,14 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C464" s="4"/>
       <c r="D464" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E464" s="4" t="str">
         <f t="shared" si="40"/>
@@ -14587,21 +14587,21 @@
     </row>
     <row r="465" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F465" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -14617,14 +14617,14 @@
     </row>
     <row r="467" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C467" s="4"/>
       <c r="D467" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E467" s="4" t="str">
         <f t="shared" ref="E467:E491" si="42">IF(ISBLANK(C467),"","&lt;!-- "&amp;C467&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D467&amp;"&lt;/item&gt;"</f>
@@ -14637,14 +14637,14 @@
     </row>
     <row r="468" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C468" s="4"/>
       <c r="D468" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E468" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14657,14 +14657,14 @@
     </row>
     <row r="469" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C469" s="4"/>
       <c r="D469" s="4" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="E469" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14677,14 +14677,14 @@
     </row>
     <row r="470" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C470" s="4"/>
       <c r="D470" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E470" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14697,14 +14697,14 @@
     </row>
     <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A471" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C471" s="4"/>
       <c r="D471" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E471" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14717,14 +14717,14 @@
     </row>
     <row r="472" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C472" s="4"/>
       <c r="D472" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E472" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14737,14 +14737,14 @@
     </row>
     <row r="473" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C473" s="4"/>
       <c r="D473" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E473" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14757,14 +14757,14 @@
     </row>
     <row r="474" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C474" s="4"/>
       <c r="D474" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E474" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14777,14 +14777,14 @@
     </row>
     <row r="475" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C475" s="4"/>
       <c r="D475" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E475" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14797,14 +14797,14 @@
     </row>
     <row r="476" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A476" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C476" s="4"/>
       <c r="D476" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E476" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14817,14 +14817,14 @@
     </row>
     <row r="477" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C477" s="4"/>
       <c r="D477" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E477" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14837,14 +14837,14 @@
     </row>
     <row r="478" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C478" s="4"/>
       <c r="D478" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E478" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14857,14 +14857,14 @@
     </row>
     <row r="479" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C479" s="4"/>
       <c r="D479" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E479" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14877,14 +14877,14 @@
     </row>
     <row r="480" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C480" s="4"/>
       <c r="D480" s="4" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="E480" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14897,14 +14897,14 @@
     </row>
     <row r="481" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C481" s="4"/>
       <c r="D481" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E481" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14917,14 +14917,14 @@
     </row>
     <row r="482" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C482" s="4"/>
       <c r="D482" s="4" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="E482" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14937,14 +14937,14 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C483" s="4"/>
       <c r="D483" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E483" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14957,14 +14957,14 @@
     </row>
     <row r="484" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C484" s="4"/>
       <c r="D484" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E484" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14977,14 +14977,14 @@
     </row>
     <row r="485" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C485" s="4"/>
       <c r="D485" s="4" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="E485" s="4" t="str">
         <f t="shared" si="42"/>
@@ -14997,14 +14997,14 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C486" s="4"/>
       <c r="D486" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E486" s="4" t="str">
         <f t="shared" si="42"/>
@@ -15017,14 +15017,14 @@
     </row>
     <row r="487" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A487" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C487" s="4"/>
       <c r="D487" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E487" s="4" t="str">
         <f t="shared" si="42"/>
@@ -15037,14 +15037,14 @@
     </row>
     <row r="488" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="C488" s="4"/>
       <c r="D488" s="4" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="E488" s="4" t="str">
         <f t="shared" si="42"/>
@@ -15057,14 +15057,14 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C489" s="4"/>
       <c r="D489" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E489" s="4" t="str">
         <f t="shared" si="42"/>
@@ -15077,14 +15077,14 @@
     </row>
     <row r="490" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A490" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C490" s="4"/>
       <c r="D490" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E490" s="4" t="str">
         <f t="shared" si="42"/>
@@ -15097,14 +15097,14 @@
     </row>
     <row r="491" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A491" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C491" s="4"/>
       <c r="D491" s="4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E491" s="4" t="str">
         <f t="shared" si="42"/>
@@ -15117,21 +15117,21 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F492" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
@@ -15141,14 +15141,14 @@
     </row>
     <row r="494" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A494" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B494" s="4" t="s">
         <v>1107</v>
-      </c>
-      <c r="B494" s="4" t="s">
-        <v>1108</v>
       </c>
       <c r="C494" s="4"/>
       <c r="D494" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E494" s="4" t="str">
         <f t="shared" ref="E494:E501" si="44">IF(ISBLANK(C494),"","&lt;!-- "&amp;C494&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A494&amp;"""&gt;"&amp;D494&amp;"&lt;/string&gt;"</f>
@@ -15161,14 +15161,14 @@
     </row>
     <row r="495" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A495" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C495" s="4"/>
       <c r="D495" s="4" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="E495" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15181,14 +15181,14 @@
     </row>
     <row r="496" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="C496" s="4"/>
       <c r="D496" s="4" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="E496" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15201,14 +15201,14 @@
     </row>
     <row r="497" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A497" s="4" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C497" s="4"/>
       <c r="D497" s="4" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E497" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15221,16 +15221,16 @@
     </row>
     <row r="498" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A498" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B498" s="4" t="s">
         <v>1113</v>
       </c>
-      <c r="B498" s="4" t="s">
+      <c r="C498" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="C498" s="4" t="s">
-        <v>1115</v>
-      </c>
       <c r="D498" s="4" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="E498" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15243,14 +15243,14 @@
     </row>
     <row r="499" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B499" s="4" t="s">
         <v>1116</v>
-      </c>
-      <c r="B499" s="4" t="s">
-        <v>1117</v>
       </c>
       <c r="C499" s="4"/>
       <c r="D499" s="4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E499" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15263,14 +15263,14 @@
     </row>
     <row r="500" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B500" s="4" t="s">
         <v>1119</v>
-      </c>
-      <c r="B500" s="4" t="s">
-        <v>1120</v>
       </c>
       <c r="C500" s="4"/>
       <c r="D500" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E500" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15283,14 +15283,14 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B501" s="4" t="s">
         <v>1122</v>
-      </c>
-      <c r="B501" s="4" t="s">
-        <v>1123</v>
       </c>
       <c r="C501" s="4"/>
       <c r="D501" s="4" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E501" s="4" t="str">
         <f t="shared" si="44"/>
@@ -15303,7 +15303,7 @@
     </row>
     <row r="502" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A502" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -15319,14 +15319,14 @@
     </row>
     <row r="503" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A503" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C503" s="4"/>
       <c r="D503" s="4" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="E503" s="4" t="str">
         <f t="shared" ref="E503:E505" si="45">IF(ISBLANK(C503),"","&lt;!-- "&amp;C503&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D503&amp;"&lt;/item&gt;"</f>
@@ -15339,14 +15339,14 @@
     </row>
     <row r="504" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A504" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C504" s="4"/>
       <c r="D504" s="4" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="E504" s="4" t="str">
         <f t="shared" si="45"/>
@@ -15359,14 +15359,14 @@
     </row>
     <row r="505" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A505" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="C505" s="4"/>
       <c r="D505" s="4" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E505" s="4" t="str">
         <f t="shared" si="45"/>
@@ -15379,21 +15379,21 @@
     </row>
     <row r="506" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F506" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -15409,14 +15409,14 @@
     </row>
     <row r="508" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A508" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C508" s="4"/>
       <c r="D508" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E508" s="4" t="str">
         <f t="shared" ref="E508:E527" si="47">IF(ISBLANK(C508),"","&lt;!-- "&amp;C508&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D508&amp;"&lt;/item&gt;"</f>
@@ -15429,14 +15429,14 @@
     </row>
     <row r="509" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A509" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C509" s="4"/>
       <c r="D509" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E509" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15449,14 +15449,14 @@
     </row>
     <row r="510" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C510" s="4"/>
       <c r="D510" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E510" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15469,14 +15469,14 @@
     </row>
     <row r="511" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A511" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C511" s="4"/>
       <c r="D511" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E511" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15489,14 +15489,14 @@
     </row>
     <row r="512" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A512" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C512" s="4"/>
       <c r="D512" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E512" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15509,14 +15509,14 @@
     </row>
     <row r="513" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A513" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C513" s="4"/>
       <c r="D513" s="4" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="E513" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15529,14 +15529,14 @@
     </row>
     <row r="514" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A514" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C514" s="4"/>
       <c r="D514" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E514" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15549,14 +15549,14 @@
     </row>
     <row r="515" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C515" s="4"/>
       <c r="D515" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E515" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15569,14 +15569,14 @@
     </row>
     <row r="516" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A516" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="C516" s="4"/>
       <c r="D516" s="4" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E516" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15589,14 +15589,14 @@
     </row>
     <row r="517" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A517" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C517" s="4"/>
       <c r="D517" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E517" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15609,14 +15609,14 @@
     </row>
     <row r="518" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A518" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C518" s="4"/>
       <c r="D518" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E518" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15629,14 +15629,14 @@
     </row>
     <row r="519" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A519" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C519" s="4"/>
       <c r="D519" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E519" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15649,14 +15649,14 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C520" s="4"/>
       <c r="D520" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E520" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15669,14 +15669,14 @@
     </row>
     <row r="521" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A521" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C521" s="4"/>
       <c r="D521" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E521" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15689,14 +15689,14 @@
     </row>
     <row r="522" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A522" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C522" s="4"/>
       <c r="D522" s="4" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E522" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15709,14 +15709,14 @@
     </row>
     <row r="523" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A523" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C523" s="4"/>
       <c r="D523" s="4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E523" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15729,14 +15729,14 @@
     </row>
     <row r="524" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A524" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C524" s="4"/>
       <c r="D524" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E524" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15749,14 +15749,14 @@
     </row>
     <row r="525" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A525" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C525" s="4"/>
       <c r="D525" s="4" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="E525" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15769,14 +15769,14 @@
     </row>
     <row r="526" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A526" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C526" s="4"/>
       <c r="D526" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E526" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15789,14 +15789,14 @@
     </row>
     <row r="527" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A527" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="C527" s="4"/>
       <c r="D527" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E527" s="4" t="str">
         <f t="shared" si="47"/>
@@ -15809,21 +15809,21 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F528" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A529" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B529" s="7"/>
       <c r="C529" s="7"/>
@@ -15833,7 +15833,7 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -15849,14 +15849,14 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C531" s="4"/>
       <c r="D531" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E531" s="11" t="str">
         <f t="shared" ref="E531:E534" si="49">IF(ISBLANK(C531),"","&lt;!-- "&amp;C531&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D531&amp;"&lt;/item&gt;"</f>
@@ -15869,14 +15869,14 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C532" s="4"/>
       <c r="D532" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E532" s="11" t="str">
         <f t="shared" si="49"/>
@@ -15889,14 +15889,14 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C533" s="4"/>
       <c r="D533" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E533" s="11" t="str">
         <f t="shared" si="49"/>
@@ -15909,14 +15909,14 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C534" s="4"/>
       <c r="D534" s="4" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="E534" s="11" t="str">
         <f t="shared" si="49"/>
@@ -15929,16 +15929,16 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="E535" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F535" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
@@ -15959,14 +15959,14 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C537" s="4"/>
       <c r="D537" s="4" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="E537" s="11" t="str">
         <f t="shared" ref="E537:E538" si="51">IF(ISBLANK(C537),"","&lt;!-- "&amp;C537&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D537&amp;"&lt;/item&gt;"</f>
@@ -15979,14 +15979,14 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C538" s="4"/>
       <c r="D538" s="4" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="E538" s="11" t="str">
         <f t="shared" si="51"/>
@@ -16005,10 +16005,10 @@
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F539" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
@@ -16029,14 +16029,14 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C541" s="4"/>
       <c r="D541" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E541" s="11" t="str">
         <f t="shared" ref="E541:E607" si="52">IF(ISBLANK(C541),"","&lt;!-- "&amp;C541&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D541&amp;"&lt;/item&gt;"</f>
@@ -16049,14 +16049,14 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C542" s="4"/>
       <c r="D542" s="4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E542" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16069,14 +16069,14 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C543" s="4"/>
       <c r="D543" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E543" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16089,14 +16089,14 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C544" s="4"/>
       <c r="D544" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E544" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16109,14 +16109,14 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C545" s="4"/>
       <c r="D545" s="4" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E545" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16129,14 +16129,14 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C546" s="4"/>
       <c r="D546" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E546" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16149,14 +16149,14 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C547" s="4"/>
       <c r="D547" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E547" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16169,14 +16169,14 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C548" s="4"/>
       <c r="D548" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E548" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16189,14 +16189,14 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C549" s="4"/>
       <c r="D549" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E549" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16209,14 +16209,14 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C550" s="4"/>
       <c r="D550" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E550" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16229,14 +16229,14 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C551" s="4"/>
       <c r="D551" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E551" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16249,14 +16249,14 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C552" s="4"/>
       <c r="D552" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E552" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16269,14 +16269,14 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C553" s="4"/>
       <c r="D553" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E553" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16289,14 +16289,14 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C554" s="4"/>
       <c r="D554" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E554" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16309,14 +16309,14 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C555" s="4"/>
       <c r="D555" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E555" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16329,14 +16329,14 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C556" s="4"/>
       <c r="D556" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E556" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16349,14 +16349,14 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C557" s="4"/>
       <c r="D557" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E557" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16369,14 +16369,14 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C558" s="4"/>
       <c r="D558" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E558" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16389,14 +16389,14 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C559" s="4"/>
       <c r="D559" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E559" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16409,14 +16409,14 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C560" s="4"/>
       <c r="D560" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E560" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16429,14 +16429,14 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C561" s="4"/>
       <c r="D561" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E561" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16449,14 +16449,14 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C562" s="4"/>
       <c r="D562" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E562" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16469,14 +16469,14 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C563" s="4"/>
       <c r="D563" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E563" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16489,14 +16489,14 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C564" s="4"/>
       <c r="D564" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E564" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16509,14 +16509,14 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C565" s="4"/>
       <c r="D565" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E565" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16529,14 +16529,14 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C566" s="4"/>
       <c r="D566" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E566" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16549,14 +16549,14 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C567" s="4"/>
       <c r="D567" s="4" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E567" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16569,14 +16569,14 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C568" s="4"/>
       <c r="D568" s="4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E568" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16589,14 +16589,14 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C569" s="4"/>
       <c r="D569" s="4" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E569" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16609,14 +16609,14 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C570" s="4"/>
       <c r="D570" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E570" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16629,14 +16629,14 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C571" s="4"/>
       <c r="D571" s="4" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="E571" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16649,14 +16649,14 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C572" s="4"/>
       <c r="D572" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E572" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16669,14 +16669,14 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C573" s="4"/>
       <c r="D573" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E573" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16689,14 +16689,14 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C574" s="4"/>
       <c r="D574" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E574" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16709,14 +16709,14 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C575" s="4"/>
       <c r="D575" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E575" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16729,14 +16729,14 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C576" s="4"/>
       <c r="D576" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E576" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16749,14 +16749,14 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C577" s="4"/>
       <c r="D577" s="4" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E577" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16769,14 +16769,14 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C578" s="4"/>
       <c r="D578" s="4" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E578" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16789,14 +16789,14 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C579" s="4"/>
       <c r="D579" s="4" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E579" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16809,14 +16809,14 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C580" s="4"/>
       <c r="D580" s="4" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E580" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16829,14 +16829,14 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C581" s="4"/>
       <c r="D581" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E581" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16849,14 +16849,14 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C582" s="4"/>
       <c r="D582" s="4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E582" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16869,14 +16869,14 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C583" s="4"/>
       <c r="D583" s="4" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E583" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16889,14 +16889,14 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C584" s="4"/>
       <c r="D584" s="4" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E584" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16909,14 +16909,14 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C585" s="4"/>
       <c r="D585" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E585" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16929,14 +16929,14 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C586" s="4"/>
       <c r="D586" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E586" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16949,14 +16949,14 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C587" s="4"/>
       <c r="D587" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E587" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16969,14 +16969,14 @@
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C588" s="4"/>
       <c r="D588" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E588" s="11" t="str">
         <f t="shared" si="52"/>
@@ -16989,14 +16989,14 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C589" s="4"/>
       <c r="D589" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E589" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17009,14 +17009,14 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C590" s="4"/>
       <c r="D590" s="4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E590" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17029,14 +17029,14 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C591" s="4"/>
       <c r="D591" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E591" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17049,14 +17049,14 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C592" s="4"/>
       <c r="D592" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E592" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17069,14 +17069,14 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C593" s="4"/>
       <c r="D593" s="4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E593" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17089,14 +17089,14 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C594" s="4"/>
       <c r="D594" s="4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E594" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17109,14 +17109,14 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C595" s="4"/>
       <c r="D595" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E595" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17129,14 +17129,14 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C596" s="4"/>
       <c r="D596" s="4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E596" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17149,14 +17149,14 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C597" s="4"/>
       <c r="D597" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E597" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17169,14 +17169,14 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C598" s="4"/>
       <c r="D598" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E598" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17189,14 +17189,14 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C599" s="4"/>
       <c r="D599" s="4" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="E599" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17209,14 +17209,14 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B600" s="4" t="s">
         <v>413</v>
       </c>
       <c r="C600" s="4"/>
       <c r="D600" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E600" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17229,14 +17229,14 @@
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C601" s="4"/>
       <c r="D601" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E601" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17249,14 +17249,14 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C602" s="4"/>
       <c r="D602" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E602" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17269,14 +17269,14 @@
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C603" s="4"/>
       <c r="D603" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E603" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17295,10 +17295,10 @@
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
       <c r="E604" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F604" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
@@ -17319,14 +17319,14 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C606" s="4"/>
       <c r="D606" s="4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E606" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17339,14 +17339,14 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C607" s="4"/>
       <c r="D607" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E607" s="11" t="str">
         <f t="shared" si="52"/>
@@ -17359,14 +17359,14 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C608" s="4"/>
       <c r="D608" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E608" s="11" t="str">
         <f t="shared" ref="E608:E631" si="55">IF(ISBLANK(C608),"","&lt;!-- "&amp;C608&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D608&amp;"&lt;/item&gt;"</f>
@@ -17379,14 +17379,14 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C609" s="4"/>
       <c r="D609" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E609" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17399,14 +17399,14 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C610" s="4"/>
       <c r="D610" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E610" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17419,14 +17419,14 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C611" s="4"/>
       <c r="D611" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E611" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17439,14 +17439,14 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C612" s="4"/>
       <c r="D612" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E612" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17459,14 +17459,14 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C613" s="4"/>
       <c r="D613" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E613" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17479,14 +17479,14 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C614" s="4"/>
       <c r="D614" s="4" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E614" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17499,14 +17499,14 @@
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C615" s="4"/>
       <c r="D615" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E615" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17519,14 +17519,14 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C616" s="4"/>
       <c r="D616" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E616" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17539,14 +17539,14 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C617" s="4"/>
       <c r="D617" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E617" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17559,14 +17559,14 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C618" s="4"/>
       <c r="D618" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E618" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17579,14 +17579,14 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C619" s="4"/>
       <c r="D619" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E619" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17599,14 +17599,14 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C620" s="4"/>
       <c r="D620" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E620" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17619,14 +17619,14 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C621" s="4"/>
       <c r="D621" s="4" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E621" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17639,14 +17639,14 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C622" s="4"/>
       <c r="D622" s="4" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E622" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17659,14 +17659,14 @@
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C623" s="4"/>
       <c r="D623" s="4" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E623" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17679,14 +17679,14 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C624" s="4"/>
       <c r="D624" s="4" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E624" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17699,14 +17699,14 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C625" s="4"/>
       <c r="D625" s="4" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E625" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17719,14 +17719,14 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C626" s="4"/>
       <c r="D626" s="4" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E626" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17739,14 +17739,14 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C627" s="4"/>
       <c r="D627" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E627" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17759,14 +17759,14 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C628" s="4"/>
       <c r="D628" s="4" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E628" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17779,14 +17779,14 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C629" s="4"/>
       <c r="D629" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E629" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17799,14 +17799,14 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C630" s="4"/>
       <c r="D630" s="4" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E630" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17819,14 +17819,14 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C631" s="4"/>
       <c r="D631" s="4" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E631" s="11" t="str">
         <f t="shared" si="55"/>
@@ -17845,10 +17845,10 @@
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
       <c r="E632" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F632" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="633" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -17869,14 +17869,14 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C634" s="4"/>
       <c r="D634" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E634" s="11" t="str">
         <f t="shared" ref="E634:E642" si="56">IF(ISBLANK(C634),"","&lt;!-- "&amp;C634&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D634&amp;"&lt;/item&gt;"</f>
@@ -17889,14 +17889,14 @@
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C635" s="4"/>
       <c r="D635" s="4" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E635" s="11" t="str">
         <f t="shared" si="56"/>
@@ -17909,14 +17909,14 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C636" s="4"/>
       <c r="D636" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E636" s="11" t="str">
         <f t="shared" si="56"/>
@@ -17929,14 +17929,14 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C637" s="4"/>
       <c r="D637" s="4" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E637" s="11" t="str">
         <f t="shared" si="56"/>
@@ -17949,14 +17949,14 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C638" s="4"/>
       <c r="D638" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E638" s="11" t="str">
         <f t="shared" si="56"/>
@@ -17969,14 +17969,14 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C639" s="4"/>
       <c r="D639" s="4" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E639" s="11" t="str">
         <f t="shared" si="56"/>
@@ -17989,14 +17989,14 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C640" s="4"/>
       <c r="D640" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E640" s="11" t="str">
         <f t="shared" si="56"/>
@@ -18009,14 +18009,14 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C641" s="4"/>
       <c r="D641" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E641" s="11" t="str">
         <f t="shared" si="56"/>
@@ -18029,14 +18029,14 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C642" s="4"/>
       <c r="D642" s="4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E642" s="11" t="str">
         <f t="shared" si="56"/>
@@ -18055,15 +18055,15 @@
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
       <c r="E643" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F643" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -18079,14 +18079,14 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C645" s="4"/>
       <c r="D645" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E645" s="11" t="str">
         <f t="shared" ref="E645:E689" si="58">IF(ISBLANK(C645),"","&lt;!-- "&amp;C645&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D645&amp;"&lt;/item&gt;"</f>
@@ -18099,14 +18099,14 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C646" s="4"/>
       <c r="D646" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E646" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18119,14 +18119,14 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C647" s="4"/>
       <c r="D647" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E647" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18139,14 +18139,14 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C648" s="4"/>
       <c r="D648" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E648" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18159,14 +18159,14 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C649" s="4"/>
       <c r="D649" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E649" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18179,14 +18179,14 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C650" s="4"/>
       <c r="D650" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E650" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18199,14 +18199,14 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C651" s="4"/>
       <c r="D651" s="4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E651" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18219,14 +18219,14 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C652" s="4"/>
       <c r="D652" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E652" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18239,14 +18239,14 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C653" s="4"/>
       <c r="D653" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E653" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18259,14 +18259,14 @@
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C654" s="4"/>
       <c r="D654" s="4" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E654" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18279,14 +18279,14 @@
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C655" s="4"/>
       <c r="D655" s="4" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E655" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18299,14 +18299,14 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C656" s="4"/>
       <c r="D656" s="4" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E656" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18319,14 +18319,14 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C657" s="4"/>
       <c r="D657" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E657" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18339,14 +18339,14 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C658" s="4"/>
       <c r="D658" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E658" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18359,14 +18359,14 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C659" s="4"/>
       <c r="D659" s="4" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E659" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18379,14 +18379,14 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C660" s="4"/>
       <c r="D660" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E660" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18399,14 +18399,14 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C661" s="4"/>
       <c r="D661" s="4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E661" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18419,14 +18419,14 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C662" s="4"/>
       <c r="D662" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E662" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18439,14 +18439,14 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C663" s="4"/>
       <c r="D663" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E663" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18459,14 +18459,14 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C664" s="4"/>
       <c r="D664" s="4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E664" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18479,14 +18479,14 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C665" s="4"/>
       <c r="D665" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E665" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18499,14 +18499,14 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C666" s="4"/>
       <c r="D666" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E666" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18519,14 +18519,14 @@
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C667" s="4"/>
       <c r="D667" s="4" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E667" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18539,14 +18539,14 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C668" s="4"/>
       <c r="D668" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E668" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18559,14 +18559,14 @@
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C669" s="4"/>
       <c r="D669" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E669" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18579,14 +18579,14 @@
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C670" s="4"/>
       <c r="D670" s="4" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E670" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18599,14 +18599,14 @@
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C671" s="4"/>
       <c r="D671" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E671" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18619,14 +18619,14 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C672" s="4"/>
       <c r="D672" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E672" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18639,14 +18639,14 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C673" s="4"/>
       <c r="D673" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E673" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18659,14 +18659,14 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C674" s="4"/>
       <c r="D674" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E674" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18679,14 +18679,14 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C675" s="4"/>
       <c r="D675" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E675" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18699,14 +18699,14 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C676" s="4"/>
       <c r="D676" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E676" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18719,14 +18719,14 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C677" s="4"/>
       <c r="D677" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E677" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18739,14 +18739,14 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C678" s="4"/>
       <c r="D678" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E678" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18759,14 +18759,14 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C679" s="4"/>
       <c r="D679" s="4" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E679" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18779,14 +18779,14 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C680" s="4"/>
       <c r="D680" s="4" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E680" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18799,14 +18799,14 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C681" s="4"/>
       <c r="D681" s="4" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E681" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18819,14 +18819,14 @@
     </row>
     <row r="682" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A682" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C682" s="4"/>
       <c r="D682" s="4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E682" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18839,14 +18839,14 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C683" s="4"/>
       <c r="D683" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E683" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18859,14 +18859,14 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C684" s="4"/>
       <c r="D684" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E684" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18879,14 +18879,14 @@
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C685" s="4"/>
       <c r="D685" s="4" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E685" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18899,14 +18899,14 @@
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C686" s="4"/>
       <c r="D686" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E686" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18919,14 +18919,14 @@
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C687" s="4"/>
       <c r="D687" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E687" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18939,14 +18939,14 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C688" s="4"/>
       <c r="D688" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E688" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18959,14 +18959,14 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C689" s="4"/>
       <c r="D689" s="4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E689" s="11" t="str">
         <f t="shared" si="58"/>
@@ -18979,16 +18979,16 @@
     </row>
     <row r="690" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
       <c r="E690" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F690" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
   </sheetData>
